--- a/im_2013.xlsx
+++ b/im_2013.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="1101">
   <si>
     <t>slaskie</t>
   </si>
@@ -81,9 +81,6 @@
     <t>ANTONI</t>
   </si>
   <si>
-    <t>MICHAŁ</t>
-  </si>
-  <si>
     <t>JAN</t>
   </si>
   <si>
@@ -108,9 +105,6 @@
     <t>MARCEL</t>
   </si>
   <si>
-    <t>MIKOŁAJ</t>
-  </si>
-  <si>
     <t>PIOTR</t>
   </si>
   <si>
@@ -141,27 +135,18 @@
     <t>HUBERT</t>
   </si>
   <si>
-    <t>STANISŁAW</t>
-  </si>
-  <si>
     <t>TOMASZ</t>
   </si>
   <si>
     <t>OLIWIER</t>
   </si>
   <si>
-    <t>MIŁOSZ</t>
-  </si>
-  <si>
     <t>FABIAN</t>
   </si>
   <si>
     <t>MAKSYMILIAN</t>
   </si>
   <si>
-    <t>PAWEŁ</t>
-  </si>
-  <si>
     <t>LEON</t>
   </si>
   <si>
@@ -204,12 +189,6 @@
     <t>IGNACY</t>
   </si>
   <si>
-    <t>BŁAŻEJ</t>
-  </si>
-  <si>
-    <t>BARTŁOMIEJ</t>
-  </si>
-  <si>
     <t>KAJETAN</t>
   </si>
   <si>
@@ -222,9 +201,6 @@
     <t>KSAWERY</t>
   </si>
   <si>
-    <t>ŁUKASZ</t>
-  </si>
-  <si>
     <t>KUBA</t>
   </si>
   <si>
@@ -255,18 +231,12 @@
     <t>OLIVER</t>
   </si>
   <si>
-    <t>RAFAŁ</t>
-  </si>
-  <si>
     <t>GRACJAN</t>
   </si>
   <si>
     <t>ALEX</t>
   </si>
   <si>
-    <t>PRZEMYSŁAW</t>
-  </si>
-  <si>
     <t>ERYK</t>
   </si>
   <si>
@@ -294,9 +264,6 @@
     <t>ROBERT</t>
   </si>
   <si>
-    <t>RADOSŁAW</t>
-  </si>
-  <si>
     <t>TOBIASZ</t>
   </si>
   <si>
@@ -306,9 +273,6 @@
     <t>DAVID</t>
   </si>
   <si>
-    <t>JĘDRZEJ</t>
-  </si>
-  <si>
     <t>CEZARY</t>
   </si>
   <si>
@@ -426,9 +390,6 @@
     <t>FELIKS</t>
   </si>
   <si>
-    <t>JÓZEF</t>
-  </si>
-  <si>
     <t>REMIGIUSZ</t>
   </si>
   <si>
@@ -465,9 +426,6 @@
     <t>TYTUS</t>
   </si>
   <si>
-    <t>JAROSŁAW</t>
-  </si>
-  <si>
     <t>MAURYCY</t>
   </si>
   <si>
@@ -510,9 +468,6 @@
     <t>KEWIN</t>
   </si>
   <si>
-    <t>WŁADYSŁAW</t>
-  </si>
-  <si>
     <t>THOMAS</t>
   </si>
   <si>
@@ -540,9 +495,6 @@
     <t>MANUEL</t>
   </si>
   <si>
-    <t>SŁAWOMIR</t>
-  </si>
-  <si>
     <t>MAKS</t>
   </si>
   <si>
@@ -564,12 +516,6 @@
     <t>AARON</t>
   </si>
   <si>
-    <t>BOLESŁAW</t>
-  </si>
-  <si>
-    <t>MIROSŁAW</t>
-  </si>
-  <si>
     <t>SYLWESTER</t>
   </si>
   <si>
@@ -579,9 +525,6 @@
     <t>ALEKSY</t>
   </si>
   <si>
-    <t>CZESŁAW</t>
-  </si>
-  <si>
     <t>BRUNON</t>
   </si>
   <si>
@@ -663,9 +606,6 @@
     <t>JOEL</t>
   </si>
   <si>
-    <t>BOGUMIŁ</t>
-  </si>
-  <si>
     <t>LEONARDO</t>
   </si>
   <si>
@@ -828,9 +768,6 @@
     <t>SIMON</t>
   </si>
   <si>
-    <t>BOGUSŁAW</t>
-  </si>
-  <si>
     <t>ERIK</t>
   </si>
   <si>
@@ -1005,9 +942,6 @@
     <t>PAULINA</t>
   </si>
   <si>
-    <t>MAŁGORZATA</t>
-  </si>
-  <si>
     <t>DOMINIKA</t>
   </si>
   <si>
@@ -1041,9 +975,6 @@
     <t>OLIVIA</t>
   </si>
   <si>
-    <t>ŁUCJA</t>
-  </si>
-  <si>
     <t>NELA</t>
   </si>
   <si>
@@ -1122,9 +1053,6 @@
     <t>SANDRA</t>
   </si>
   <si>
-    <t>RÓŻA</t>
-  </si>
-  <si>
     <t>MAYA</t>
   </si>
   <si>
@@ -1251,9 +1179,6 @@
     <t>AMANDA</t>
   </si>
   <si>
-    <t>JAŚMINA</t>
-  </si>
-  <si>
     <t>OTYLIA</t>
   </si>
   <si>
@@ -1287,9 +1212,6 @@
     <t>ESTERA</t>
   </si>
   <si>
-    <t>ANDŻELIKA</t>
-  </si>
-  <si>
     <t>TOLA</t>
   </si>
   <si>
@@ -1350,9 +1272,6 @@
     <t>TATIANA</t>
   </si>
   <si>
-    <t>ELŻBIETA</t>
-  </si>
-  <si>
     <t>JUDYTA</t>
   </si>
   <si>
@@ -1458,9 +1377,6 @@
     <t>LAYLA</t>
   </si>
   <si>
-    <t>DOBROSŁAWA</t>
-  </si>
-  <si>
     <t>LISA</t>
   </si>
   <si>
@@ -1539,9 +1455,6 @@
     <t>SYNTIA</t>
   </si>
   <si>
-    <t>LUDMIŁA</t>
-  </si>
-  <si>
     <t>ARIANA</t>
   </si>
   <si>
@@ -1587,9 +1500,6 @@
     <t>LEONIE</t>
   </si>
   <si>
-    <t>GRAŻYNA</t>
-  </si>
-  <si>
     <t>GABRIELLA</t>
   </si>
   <si>
@@ -1662,9 +1572,6 @@
     <t>RENATA</t>
   </si>
   <si>
-    <t>ŻAKLINA</t>
-  </si>
-  <si>
     <t>NIKOLETTA</t>
   </si>
   <si>
@@ -1842,9 +1749,6 @@
     <t>LARYSA</t>
   </si>
   <si>
-    <t>ŻANETA</t>
-  </si>
-  <si>
     <t>KELLY</t>
   </si>
   <si>
@@ -1893,9 +1797,6 @@
     <t>SOFIJA</t>
   </si>
   <si>
-    <t>JÓZEFINA</t>
-  </si>
-  <si>
     <t>SUSANNA</t>
   </si>
   <si>
@@ -2037,9 +1938,6 @@
     <t>BRYGIDA</t>
   </si>
   <si>
-    <t>BRONISŁAW</t>
-  </si>
-  <si>
     <t>PATRIK</t>
   </si>
   <si>
@@ -2103,18 +2001,12 @@
     <t>ZOYA</t>
   </si>
   <si>
-    <t>DŻESIKA</t>
-  </si>
-  <si>
     <t>LUNA</t>
   </si>
   <si>
     <t>MONICA</t>
   </si>
   <si>
-    <t>MAŁGORZTA</t>
-  </si>
-  <si>
     <t>GLORIA</t>
   </si>
   <si>
@@ -2133,9 +2025,6 @@
     <t>LIA</t>
   </si>
   <si>
-    <t>STANISŁAWA</t>
-  </si>
-  <si>
     <t>LIGIA</t>
   </si>
   <si>
@@ -2241,9 +2130,6 @@
     <t>ILYES</t>
   </si>
   <si>
-    <t>WŁODZIMIERZ</t>
-  </si>
-  <si>
     <t>LÉO</t>
   </si>
   <si>
@@ -2280,9 +2166,6 @@
     <t>GIULIA</t>
   </si>
   <si>
-    <t>MIROSŁAWA</t>
-  </si>
-  <si>
     <t>NIKA</t>
   </si>
   <si>
@@ -2358,9 +2241,6 @@
     <t>SYLVIA</t>
   </si>
   <si>
-    <t>JÓZEFA</t>
-  </si>
-  <si>
     <t>JULIETTE</t>
   </si>
   <si>
@@ -2586,9 +2466,6 @@
     <t>KAREEM</t>
   </si>
   <si>
-    <t>ZDZISŁAW</t>
-  </si>
-  <si>
     <t>FRANCISCO</t>
   </si>
   <si>
@@ -2697,9 +2574,6 @@
     <t>LIBI</t>
   </si>
   <si>
-    <t>MIŁA</t>
-  </si>
-  <si>
     <t>OFRI</t>
   </si>
   <si>
@@ -2754,9 +2628,6 @@
     <t>RUTH</t>
   </si>
   <si>
-    <t>ZŁATA</t>
-  </si>
-  <si>
     <t>YANA</t>
   </si>
   <si>
@@ -2820,9 +2691,6 @@
     <t>MARIJA</t>
   </si>
   <si>
-    <t>BOGUMIŁA</t>
-  </si>
-  <si>
     <t>FILOMENA</t>
   </si>
   <si>
@@ -3000,9 +2868,6 @@
     <t>ANGELA</t>
   </si>
   <si>
-    <t>BOŻENA</t>
-  </si>
-  <si>
     <t>MARIAN</t>
   </si>
   <si>
@@ -3033,9 +2898,6 @@
     <t>MASSIMO</t>
   </si>
   <si>
-    <t>MIECZYSŁAW</t>
-  </si>
-  <si>
     <t>PAWEL</t>
   </si>
   <si>
@@ -3171,9 +3033,6 @@
     <t>ELISE</t>
   </si>
   <si>
-    <t>BOGUSŁAWA</t>
-  </si>
-  <si>
     <t>MARY</t>
   </si>
   <si>
@@ -3346,6 +3205,120 @@
   </si>
   <si>
     <t>JOSEPHINE</t>
+  </si>
+  <si>
+    <t>MIKOLAJ</t>
+  </si>
+  <si>
+    <t>BLAZEJ</t>
+  </si>
+  <si>
+    <t>BARTLOMIEJ</t>
+  </si>
+  <si>
+    <t>RAFAL</t>
+  </si>
+  <si>
+    <t>PRZEMYSLAW</t>
+  </si>
+  <si>
+    <t>RADOSLAW</t>
+  </si>
+  <si>
+    <t>JEDRZEJ</t>
+  </si>
+  <si>
+    <t>JOZEF</t>
+  </si>
+  <si>
+    <t>JAROSLAW</t>
+  </si>
+  <si>
+    <t>WLADYSLAW</t>
+  </si>
+  <si>
+    <t>SLAWOMIR</t>
+  </si>
+  <si>
+    <t>BOLESLAW</t>
+  </si>
+  <si>
+    <t>MIROSLAW</t>
+  </si>
+  <si>
+    <t>CZESLAW</t>
+  </si>
+  <si>
+    <t>BOGUMIL</t>
+  </si>
+  <si>
+    <t>BOGUSLAW</t>
+  </si>
+  <si>
+    <t>MALGORZATA</t>
+  </si>
+  <si>
+    <t>ROZA</t>
+  </si>
+  <si>
+    <t>ANDZELIKA</t>
+  </si>
+  <si>
+    <t>ELZBIETA</t>
+  </si>
+  <si>
+    <t>DOBROSLAWA</t>
+  </si>
+  <si>
+    <t>LUDMILA</t>
+  </si>
+  <si>
+    <t>GRAZYNA</t>
+  </si>
+  <si>
+    <t>ZAKLINA</t>
+  </si>
+  <si>
+    <t>ZANETA</t>
+  </si>
+  <si>
+    <t>JOZEFINA</t>
+  </si>
+  <si>
+    <t>BRONISLAW</t>
+  </si>
+  <si>
+    <t>DZESIKA</t>
+  </si>
+  <si>
+    <t>MALGORZTA</t>
+  </si>
+  <si>
+    <t>STANISLAWA</t>
+  </si>
+  <si>
+    <t>WLODZIMIERZ</t>
+  </si>
+  <si>
+    <t>MIROSLAWA</t>
+  </si>
+  <si>
+    <t>JOZEFA</t>
+  </si>
+  <si>
+    <t>ZDZISLAW</t>
+  </si>
+  <si>
+    <t>BOGUMILA</t>
+  </si>
+  <si>
+    <t>BOZENA</t>
+  </si>
+  <si>
+    <t>MIECZYSLAW</t>
+  </si>
+  <si>
+    <t>BOGUSLAWA</t>
   </si>
 </sst>
 </file>
@@ -3713,3271 +3686,3271 @@
         <v>20</v>
       </c>
       <c r="G1" t="s">
+        <v>254</v>
+      </c>
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>24</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>25</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>27</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>28</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="Q1" t="s">
         <v>29</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>33</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>34</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
+        <v>800</v>
+      </c>
+      <c r="AB1" t="s">
         <v>39</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>40</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AE1" t="s">
         <v>41</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>42</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
+        <v>960</v>
+      </c>
+      <c r="AH1" t="s">
         <v>43</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AI1" t="s">
         <v>44</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AJ1" t="s">
         <v>45</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AK1" t="s">
         <v>46</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AL1" t="s">
         <v>47</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AM1" t="s">
         <v>48</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AN1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AO1" t="s">
         <v>50</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
         <v>51</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AQ1" t="s">
         <v>52</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AR1" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AS1" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AT1" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AU1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AV1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AX1" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AY1" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AZ1" t="s">
         <v>59</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="BA1" t="s">
         <v>60</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="BB1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="BC1" t="s">
         <v>61</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="BD1" t="s">
         <v>62</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="BE1" t="s">
         <v>63</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BF1" t="s">
         <v>64</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="BG1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="BH1" t="s">
         <v>66</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BI1" t="s">
         <v>67</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BJ1" t="s">
         <v>68</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BK1" t="s">
         <v>69</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BL1" t="s">
         <v>70</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BM1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="BN1" t="s">
         <v>71</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BO1" t="s">
         <v>72</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BP1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="BQ1" t="s">
         <v>73</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BR1" t="s">
         <v>74</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BS1" t="s">
         <v>75</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BT1" t="s">
         <v>76</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BU1" t="s">
         <v>77</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BV1" t="s">
         <v>78</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BW1" t="s">
         <v>79</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BX1" t="s">
         <v>80</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BY1" t="s">
         <v>81</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BZ1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="CA1" t="s">
         <v>82</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="CB1" t="s">
         <v>83</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="CC1" t="s">
         <v>84</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="CD1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="CE1" t="s">
         <v>85</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="CF1" t="s">
         <v>86</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="CG1" t="s">
         <v>87</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="CH1" t="s">
         <v>88</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="CI1" t="s">
         <v>89</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="CJ1" t="s">
         <v>90</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="CK1" t="s">
         <v>91</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="CL1" t="s">
         <v>92</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CM1" t="s">
         <v>93</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CN1" t="s">
         <v>94</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CO1" t="s">
         <v>95</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CP1" t="s">
         <v>96</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CQ1" t="s">
         <v>97</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CR1" t="s">
         <v>98</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CS1" t="s">
         <v>99</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CT1" t="s">
         <v>100</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CU1" t="s">
         <v>101</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CV1" t="s">
         <v>102</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CW1" t="s">
         <v>103</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CX1" t="s">
         <v>104</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CY1" t="s">
         <v>105</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CZ1" t="s">
         <v>106</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="DA1" t="s">
         <v>107</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="DB1" t="s">
         <v>108</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="DC1" t="s">
         <v>109</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="DD1" t="s">
         <v>110</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DE1" t="s">
         <v>111</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="DF1" t="s">
         <v>112</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="DG1" t="s">
         <v>113</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="DH1" t="s">
         <v>114</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="DI1" t="s">
         <v>115</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="DJ1" t="s">
         <v>116</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="DK1" t="s">
         <v>117</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="DL1" t="s">
         <v>118</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DM1" t="s">
         <v>119</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DN1" t="s">
         <v>120</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DO1" t="s">
         <v>121</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DP1" t="s">
         <v>122</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DQ1" t="s">
         <v>123</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DR1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="DS1" t="s">
         <v>124</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DT1" t="s">
         <v>125</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DU1" t="s">
         <v>126</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DV1" t="s">
         <v>127</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DW1" t="s">
         <v>128</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DX1" t="s">
         <v>129</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DY1" t="s">
         <v>130</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DZ1" t="s">
         <v>131</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="EA1" t="s">
         <v>132</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="EB1" t="s">
         <v>133</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="EC1" t="s">
         <v>134</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="ED1" t="s">
         <v>135</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="EE1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="EF1" t="s">
         <v>136</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="EG1" t="s">
         <v>137</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="EH1" t="s">
         <v>138</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="EI1" t="s">
         <v>139</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="EJ1" t="s">
         <v>140</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="EK1" t="s">
         <v>141</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="EL1" t="s">
         <v>142</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="EM1" t="s">
         <v>143</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="EN1" t="s">
         <v>144</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EO1" t="s">
         <v>145</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EP1" t="s">
         <v>146</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EQ1" t="s">
         <v>147</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ER1" t="s">
         <v>148</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="ES1" t="s">
         <v>149</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="ET1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="EU1" t="s">
         <v>150</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EV1" t="s">
         <v>151</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EW1" t="s">
         <v>152</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EX1" t="s">
         <v>153</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EY1" t="s">
         <v>154</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EZ1" t="s">
         <v>155</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="FA1" t="s">
         <v>156</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="FB1" t="s">
         <v>157</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="FC1" t="s">
         <v>158</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="FD1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="FE1" t="s">
         <v>159</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="FF1" t="s">
         <v>160</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="FG1" t="s">
         <v>161</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="FH1" t="s">
         <v>162</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="FI1" t="s">
         <v>163</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="FJ1" t="s">
         <v>164</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="FK1" t="s">
         <v>165</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="FL1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="FM1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="FN1" t="s">
         <v>166</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="FO1" t="s">
         <v>167</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="FP1" t="s">
         <v>168</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="FQ1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="FR1" t="s">
         <v>169</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="FS1" t="s">
         <v>170</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FT1" t="s">
         <v>171</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FU1" t="s">
         <v>172</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FV1" t="s">
         <v>173</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FW1" t="s">
         <v>174</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FX1" t="s">
         <v>175</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FY1" t="s">
         <v>176</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FZ1" t="s">
         <v>177</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="GA1" t="s">
         <v>178</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="GB1" t="s">
         <v>179</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="GC1" t="s">
         <v>180</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="GD1" t="s">
         <v>181</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="GE1" t="s">
         <v>182</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="GF1" t="s">
         <v>183</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="GG1" t="s">
         <v>184</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="GH1" t="s">
         <v>185</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="GI1" t="s">
         <v>186</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="GJ1" t="s">
         <v>187</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="GK1" t="s">
         <v>188</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="GL1" t="s">
         <v>189</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="GM1" t="s">
         <v>190</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="GN1" t="s">
         <v>191</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="GO1" t="s">
         <v>192</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="GP1" t="s">
         <v>193</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="GQ1" t="s">
         <v>194</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="GR1" t="s">
         <v>195</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="GS1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="GT1" t="s">
         <v>196</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GU1" t="s">
         <v>197</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GV1" t="s">
         <v>198</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GW1" t="s">
         <v>199</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GX1" t="s">
         <v>200</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GY1" t="s">
         <v>201</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GZ1" t="s">
         <v>202</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="HA1" t="s">
         <v>203</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="HB1" t="s">
         <v>204</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="HC1" t="s">
         <v>205</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="HD1" t="s">
         <v>206</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="HE1" t="s">
         <v>207</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="HF1" t="s">
         <v>208</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="HG1" t="s">
         <v>209</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="HH1" t="s">
         <v>210</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="HI1" t="s">
         <v>211</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="HJ1" t="s">
         <v>212</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="HK1" t="s">
         <v>213</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="HL1" t="s">
         <v>214</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="HM1" t="s">
         <v>215</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="HN1" t="s">
         <v>216</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="HO1" t="s">
         <v>217</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="HP1" t="s">
         <v>218</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="HQ1" t="s">
         <v>219</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="HR1" t="s">
         <v>220</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="HS1" t="s">
         <v>221</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="HT1" t="s">
         <v>222</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HU1" t="s">
         <v>223</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HV1" t="s">
         <v>224</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HW1" t="s">
         <v>225</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HX1" t="s">
         <v>226</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HY1" t="s">
         <v>227</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HZ1" t="s">
         <v>228</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="IA1" t="s">
         <v>229</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="IB1" t="s">
         <v>230</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="IC1" t="s">
         <v>231</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="ID1" t="s">
         <v>232</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="IE1" t="s">
         <v>233</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="IF1" t="s">
         <v>234</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="IG1" t="s">
         <v>235</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="IH1" t="s">
         <v>236</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="II1" t="s">
         <v>237</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="IJ1" t="s">
         <v>238</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="IK1" t="s">
         <v>239</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="IL1" t="s">
         <v>240</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="IM1" t="s">
         <v>241</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="IN1" t="s">
         <v>242</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="IO1" t="s">
         <v>243</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="IP1" t="s">
         <v>244</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="IQ1" t="s">
         <v>245</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="IR1" t="s">
         <v>246</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="IS1" t="s">
         <v>247</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="IT1" t="s">
         <v>248</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IU1" t="s">
         <v>249</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IV1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="IW1" t="s">
         <v>250</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="IX1" t="s">
         <v>251</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="IY1" t="s">
         <v>252</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IZ1" t="s">
         <v>253</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="JA1" t="s">
         <v>254</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="JB1" t="s">
         <v>255</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="JC1" t="s">
         <v>256</v>
       </c>
-      <c r="II1" t="s">
+      <c r="JD1" t="s">
         <v>257</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="JE1" t="s">
         <v>258</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="JF1" t="s">
         <v>259</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="JG1" t="s">
         <v>260</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="JH1" t="s">
         <v>261</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="JI1" t="s">
         <v>262</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="JJ1" t="s">
         <v>263</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="JK1" t="s">
         <v>264</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="JL1" t="s">
         <v>265</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="JM1" t="s">
         <v>266</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="JN1" t="s">
         <v>267</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="JO1" t="s">
         <v>268</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="JP1" t="s">
         <v>269</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="JQ1" t="s">
         <v>270</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="JR1" t="s">
         <v>271</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="JS1" t="s">
         <v>272</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="JT1" t="s">
         <v>273</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="JU1" t="s">
         <v>274</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JV1" t="s">
         <v>275</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JW1" t="s">
         <v>276</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JX1" t="s">
         <v>277</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JY1" t="s">
         <v>278</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JZ1" t="s">
         <v>279</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="KA1" t="s">
         <v>280</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="KB1" t="s">
         <v>281</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="KC1" t="s">
         <v>282</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="KD1" t="s">
         <v>283</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="KE1" t="s">
         <v>284</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="KF1" t="s">
         <v>285</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="KG1" t="s">
         <v>286</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="KH1" t="s">
         <v>287</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="KI1" t="s">
         <v>288</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="KJ1" t="s">
         <v>289</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="KK1" t="s">
         <v>290</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="KL1" t="s">
         <v>291</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="KM1" t="s">
         <v>292</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="KN1" t="s">
         <v>293</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="KO1" t="s">
         <v>294</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="KP1" t="s">
         <v>295</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="KQ1" t="s">
         <v>296</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="KR1" t="s">
         <v>297</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="KS1" t="s">
         <v>298</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="KT1" t="s">
         <v>299</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="KU1" t="s">
         <v>300</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KV1" t="s">
         <v>301</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KW1" t="s">
         <v>302</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KX1" t="s">
         <v>303</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KY1" t="s">
         <v>304</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KZ1" t="s">
         <v>305</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="LA1" t="s">
         <v>306</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="LB1" t="s">
         <v>307</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="LC1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="LD1" t="s">
         <v>308</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="LE1" t="s">
         <v>309</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="LF1" t="s">
         <v>310</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="LG1" t="s">
         <v>311</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="LH1" t="s">
         <v>312</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="LI1" t="s">
         <v>313</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="LJ1" t="s">
         <v>314</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="LK1" t="s">
         <v>315</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="LL1" t="s">
         <v>316</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="LM1" t="s">
         <v>317</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="LN1" t="s">
         <v>318</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="LO1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="LP1" t="s">
         <v>319</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="LQ1" t="s">
         <v>320</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="LR1" t="s">
         <v>321</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="LS1" t="s">
         <v>322</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="LT1" t="s">
         <v>323</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="LU1" t="s">
         <v>324</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="LV1" t="s">
         <v>325</v>
       </c>
-      <c r="KZ1" t="s">
+      <c r="LW1" t="s">
         <v>326</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="LX1" t="s">
         <v>327</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LY1" t="s">
         <v>328</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="LZ1" t="s">
         <v>329</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="MA1" t="s">
         <v>330</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="MB1" t="s">
         <v>331</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="MC1" t="s">
         <v>332</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="MD1" t="s">
         <v>333</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="ME1" t="s">
         <v>334</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="MF1" t="s">
         <v>335</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="MG1" t="s">
         <v>336</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="MH1" t="s">
         <v>337</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="MI1" t="s">
         <v>338</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="MJ1" t="s">
         <v>339</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="MK1" t="s">
         <v>340</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="ML1" t="s">
         <v>341</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="MM1" t="s">
         <v>342</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="MN1" t="s">
         <v>343</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="MO1" t="s">
         <v>344</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="MP1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="MQ1" t="s">
         <v>345</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="MR1" t="s">
         <v>346</v>
       </c>
-      <c r="LU1" t="s">
+      <c r="MS1" t="s">
         <v>347</v>
       </c>
-      <c r="LV1" t="s">
+      <c r="MT1" t="s">
         <v>348</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="MU1" t="s">
         <v>349</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="MV1" t="s">
         <v>350</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="MW1" t="s">
         <v>351</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="MX1" t="s">
         <v>352</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MY1" t="s">
         <v>353</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MZ1" t="s">
         <v>354</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="NA1" t="s">
         <v>355</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="NB1" t="s">
         <v>356</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="NC1" t="s">
         <v>357</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="ND1" t="s">
         <v>358</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="NE1" t="s">
         <v>359</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="NF1" t="s">
         <v>360</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="NG1" t="s">
         <v>361</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="NH1" t="s">
         <v>362</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="NI1" t="s">
         <v>363</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="NJ1" t="s">
         <v>364</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="NK1" t="s">
         <v>365</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="NL1" t="s">
         <v>366</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="NM1" t="s">
         <v>367</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="NN1" t="s">
         <v>368</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="NO1" t="s">
         <v>369</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="NP1" t="s">
         <v>370</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="NQ1" t="s">
         <v>371</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="NR1" t="s">
         <v>372</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="NS1" t="s">
         <v>373</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="NT1" t="s">
         <v>374</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="NU1" t="s">
         <v>375</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="NV1" t="s">
         <v>376</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="NW1" t="s">
         <v>377</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="NX1" t="s">
         <v>378</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="NY1" t="s">
         <v>379</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="NZ1" t="s">
         <v>380</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="OA1" t="s">
         <v>381</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="OB1" t="s">
         <v>382</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="OC1" t="s">
         <v>383</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="OD1" t="s">
         <v>384</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="OE1" t="s">
         <v>385</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="OF1" t="s">
         <v>386</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="OG1" t="s">
+        <v>409</v>
+      </c>
+      <c r="OH1" t="s">
         <v>387</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="OI1" t="s">
         <v>388</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="OJ1" t="s">
         <v>389</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="OK1" t="s">
         <v>390</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="OL1" t="s">
         <v>391</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="OM1" t="s">
         <v>392</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="ON1" t="s">
         <v>393</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="OO1" t="s">
         <v>394</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="OP1" t="s">
         <v>395</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="OQ1" t="s">
         <v>396</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="OR1" t="s">
         <v>397</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="OS1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="OT1" t="s">
         <v>398</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="OU1" t="s">
         <v>399</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="OV1" t="s">
         <v>400</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="OW1" t="s">
         <v>401</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="OX1" t="s">
         <v>402</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="OY1" t="s">
         <v>403</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="OZ1" t="s">
         <v>404</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="PA1" t="s">
         <v>405</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="PB1" t="s">
         <v>406</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="PC1" t="s">
         <v>407</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="PD1" t="s">
         <v>408</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="PE1" t="s">
         <v>409</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="PF1" t="s">
         <v>410</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="PG1" t="s">
         <v>411</v>
       </c>
-      <c r="OH1" t="s">
+      <c r="PH1" t="s">
         <v>412</v>
       </c>
-      <c r="OI1" t="s">
+      <c r="PI1" t="s">
         <v>413</v>
       </c>
-      <c r="OJ1" t="s">
+      <c r="PJ1" t="s">
         <v>414</v>
       </c>
-      <c r="OK1" t="s">
+      <c r="PK1" t="s">
         <v>415</v>
       </c>
-      <c r="OL1" t="s">
+      <c r="PL1" t="s">
         <v>416</v>
       </c>
-      <c r="OM1" t="s">
+      <c r="PM1" t="s">
         <v>417</v>
       </c>
-      <c r="ON1" t="s">
+      <c r="PN1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="PO1" t="s">
         <v>418</v>
       </c>
-      <c r="OO1" t="s">
+      <c r="PP1" t="s">
         <v>419</v>
       </c>
-      <c r="OP1" t="s">
+      <c r="PQ1" t="s">
         <v>420</v>
       </c>
-      <c r="OQ1" t="s">
+      <c r="PR1" t="s">
         <v>421</v>
       </c>
-      <c r="OR1" t="s">
+      <c r="PS1" t="s">
         <v>422</v>
       </c>
-      <c r="OS1" t="s">
+      <c r="PT1" t="s">
         <v>423</v>
       </c>
-      <c r="OT1" t="s">
+      <c r="PU1" t="s">
         <v>424</v>
       </c>
-      <c r="OU1" t="s">
+      <c r="PV1" t="s">
         <v>425</v>
       </c>
-      <c r="OV1" t="s">
+      <c r="PW1" t="s">
         <v>426</v>
       </c>
-      <c r="OW1" t="s">
+      <c r="PX1" t="s">
         <v>427</v>
       </c>
-      <c r="OX1" t="s">
+      <c r="PY1" t="s">
         <v>428</v>
       </c>
-      <c r="OY1" t="s">
+      <c r="PZ1" t="s">
         <v>429</v>
       </c>
-      <c r="OZ1" t="s">
+      <c r="QA1" t="s">
         <v>430</v>
       </c>
-      <c r="PA1" t="s">
+      <c r="QB1" t="s">
         <v>431</v>
       </c>
-      <c r="PB1" t="s">
+      <c r="QC1" t="s">
         <v>432</v>
       </c>
-      <c r="PC1" t="s">
+      <c r="QD1" t="s">
         <v>433</v>
       </c>
-      <c r="PD1" t="s">
+      <c r="QE1" t="s">
         <v>434</v>
       </c>
-      <c r="PE1" t="s">
+      <c r="QF1" t="s">
         <v>435</v>
       </c>
-      <c r="PF1" t="s">
+      <c r="QG1" t="s">
         <v>436</v>
       </c>
-      <c r="PG1" t="s">
+      <c r="QH1" t="s">
         <v>437</v>
       </c>
-      <c r="PH1" t="s">
+      <c r="QI1" t="s">
         <v>438</v>
       </c>
-      <c r="PI1" t="s">
+      <c r="QJ1" t="s">
         <v>439</v>
       </c>
-      <c r="PJ1" t="s">
+      <c r="QK1" t="s">
         <v>440</v>
       </c>
-      <c r="PK1" t="s">
+      <c r="QL1" t="s">
         <v>441</v>
       </c>
-      <c r="PL1" t="s">
+      <c r="QM1" t="s">
         <v>442</v>
       </c>
-      <c r="PM1" t="s">
+      <c r="QN1" t="s">
         <v>443</v>
       </c>
-      <c r="PN1" t="s">
+      <c r="QO1" t="s">
         <v>444</v>
       </c>
-      <c r="PO1" t="s">
+      <c r="QP1" t="s">
         <v>445</v>
       </c>
-      <c r="PP1" t="s">
+      <c r="QQ1" t="s">
         <v>446</v>
       </c>
-      <c r="PQ1" t="s">
+      <c r="QR1" t="s">
         <v>447</v>
       </c>
-      <c r="PR1" t="s">
+      <c r="QS1" t="s">
         <v>448</v>
       </c>
-      <c r="PS1" t="s">
+      <c r="QT1" t="s">
         <v>449</v>
       </c>
-      <c r="PT1" t="s">
+      <c r="QU1" t="s">
         <v>450</v>
       </c>
-      <c r="PU1" t="s">
+      <c r="QV1" t="s">
         <v>451</v>
       </c>
-      <c r="PV1" t="s">
+      <c r="QW1" t="s">
         <v>452</v>
       </c>
-      <c r="PW1" t="s">
+      <c r="QX1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="QY1" t="s">
         <v>453</v>
       </c>
-      <c r="PX1" t="s">
+      <c r="QZ1" t="s">
         <v>454</v>
       </c>
-      <c r="PY1" t="s">
+      <c r="RA1" t="s">
         <v>455</v>
       </c>
-      <c r="PZ1" t="s">
+      <c r="RB1" t="s">
         <v>456</v>
       </c>
-      <c r="QA1" t="s">
+      <c r="RC1" t="s">
         <v>457</v>
       </c>
-      <c r="QB1" t="s">
+      <c r="RD1" t="s">
         <v>458</v>
       </c>
-      <c r="QC1" t="s">
+      <c r="RE1" t="s">
         <v>459</v>
       </c>
-      <c r="QD1" t="s">
+      <c r="RF1" t="s">
         <v>460</v>
       </c>
-      <c r="QE1" t="s">
+      <c r="RG1" t="s">
         <v>461</v>
       </c>
-      <c r="QF1" t="s">
+      <c r="RH1" t="s">
         <v>462</v>
       </c>
-      <c r="QG1" t="s">
+      <c r="RI1" t="s">
         <v>463</v>
       </c>
-      <c r="QH1" t="s">
+      <c r="RJ1" t="s">
         <v>464</v>
       </c>
-      <c r="QI1" t="s">
+      <c r="RK1" t="s">
         <v>465</v>
       </c>
-      <c r="QJ1" t="s">
+      <c r="RL1" t="s">
         <v>466</v>
       </c>
-      <c r="QK1" t="s">
+      <c r="RM1" t="s">
         <v>467</v>
       </c>
-      <c r="QL1" t="s">
+      <c r="RN1" t="s">
         <v>468</v>
       </c>
-      <c r="QM1" t="s">
+      <c r="RO1" t="s">
         <v>469</v>
       </c>
-      <c r="QN1" t="s">
+      <c r="RP1" t="s">
         <v>470</v>
       </c>
-      <c r="QO1" t="s">
+      <c r="RQ1" t="s">
         <v>471</v>
       </c>
-      <c r="QP1" t="s">
+      <c r="RR1" t="s">
         <v>472</v>
       </c>
-      <c r="QQ1" t="s">
+      <c r="RS1" t="s">
         <v>473</v>
       </c>
-      <c r="QR1" t="s">
+      <c r="RT1" t="s">
         <v>474</v>
       </c>
-      <c r="QS1" t="s">
+      <c r="RU1" t="s">
         <v>475</v>
       </c>
-      <c r="QT1" t="s">
+      <c r="RV1" t="s">
         <v>476</v>
       </c>
-      <c r="QU1" t="s">
+      <c r="RW1" t="s">
         <v>477</v>
       </c>
-      <c r="QV1" t="s">
+      <c r="RX1" t="s">
         <v>478</v>
       </c>
-      <c r="QW1" t="s">
+      <c r="RY1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="RZ1" t="s">
         <v>479</v>
       </c>
-      <c r="QX1" t="s">
+      <c r="SA1" t="s">
         <v>480</v>
       </c>
-      <c r="QY1" t="s">
+      <c r="SB1" t="s">
         <v>481</v>
       </c>
-      <c r="QZ1" t="s">
+      <c r="SC1" t="s">
         <v>482</v>
       </c>
-      <c r="RA1" t="s">
+      <c r="SD1" t="s">
         <v>483</v>
       </c>
-      <c r="RB1" t="s">
+      <c r="SE1" t="s">
         <v>484</v>
       </c>
-      <c r="RC1" t="s">
+      <c r="SF1" t="s">
         <v>485</v>
       </c>
-      <c r="RD1" t="s">
+      <c r="SG1" t="s">
         <v>486</v>
       </c>
-      <c r="RE1" t="s">
+      <c r="SH1" t="s">
         <v>487</v>
       </c>
-      <c r="RF1" t="s">
+      <c r="SI1" t="s">
         <v>488</v>
       </c>
-      <c r="RG1" t="s">
+      <c r="SJ1" t="s">
         <v>489</v>
       </c>
-      <c r="RH1" t="s">
+      <c r="SK1" t="s">
         <v>490</v>
       </c>
-      <c r="RI1" t="s">
+      <c r="SL1" t="s">
         <v>491</v>
       </c>
-      <c r="RJ1" t="s">
+      <c r="SM1" t="s">
         <v>492</v>
       </c>
-      <c r="RK1" t="s">
+      <c r="SN1" t="s">
         <v>493</v>
       </c>
-      <c r="RL1" t="s">
+      <c r="SO1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="SP1" t="s">
         <v>494</v>
       </c>
-      <c r="RM1" t="s">
+      <c r="SQ1" t="s">
         <v>495</v>
       </c>
-      <c r="RN1" t="s">
+      <c r="SR1" t="s">
         <v>496</v>
       </c>
-      <c r="RO1" t="s">
+      <c r="SS1" t="s">
         <v>497</v>
       </c>
-      <c r="RP1" t="s">
+      <c r="ST1" t="s">
         <v>498</v>
       </c>
-      <c r="RQ1" t="s">
+      <c r="SU1" t="s">
         <v>499</v>
       </c>
-      <c r="RR1" t="s">
+      <c r="SV1" t="s">
         <v>500</v>
       </c>
-      <c r="RS1" t="s">
+      <c r="SW1" t="s">
         <v>501</v>
       </c>
-      <c r="RT1" t="s">
+      <c r="SX1" t="s">
         <v>502</v>
       </c>
-      <c r="RU1" t="s">
+      <c r="SY1" t="s">
         <v>503</v>
       </c>
-      <c r="RV1" t="s">
+      <c r="SZ1" t="s">
         <v>504</v>
       </c>
-      <c r="RW1" t="s">
+      <c r="TA1" t="s">
         <v>505</v>
       </c>
-      <c r="RX1" t="s">
+      <c r="TB1" t="s">
         <v>506</v>
       </c>
-      <c r="RY1" t="s">
+      <c r="TC1" t="s">
         <v>507</v>
       </c>
-      <c r="RZ1" t="s">
+      <c r="TD1" t="s">
         <v>508</v>
       </c>
-      <c r="SA1" t="s">
+      <c r="TE1" t="s">
         <v>509</v>
       </c>
-      <c r="SB1" t="s">
+      <c r="TF1" t="s">
         <v>510</v>
       </c>
-      <c r="SC1" t="s">
+      <c r="TG1" t="s">
         <v>511</v>
       </c>
-      <c r="SD1" t="s">
+      <c r="TH1" t="s">
         <v>512</v>
       </c>
-      <c r="SE1" t="s">
+      <c r="TI1" t="s">
         <v>513</v>
       </c>
-      <c r="SF1" t="s">
+      <c r="TJ1" t="s">
         <v>514</v>
       </c>
-      <c r="SG1" t="s">
+      <c r="TK1" t="s">
         <v>515</v>
       </c>
-      <c r="SH1" t="s">
+      <c r="TL1" t="s">
         <v>516</v>
       </c>
-      <c r="SI1" t="s">
+      <c r="TM1" t="s">
         <v>517</v>
       </c>
-      <c r="SJ1" t="s">
+      <c r="TN1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="TO1" t="s">
         <v>518</v>
       </c>
-      <c r="SK1" t="s">
+      <c r="TP1" t="s">
         <v>519</v>
       </c>
-      <c r="SL1" t="s">
+      <c r="TQ1" t="s">
         <v>520</v>
       </c>
-      <c r="SM1" t="s">
+      <c r="TR1" t="s">
         <v>521</v>
       </c>
-      <c r="SN1" t="s">
+      <c r="TS1" t="s">
         <v>522</v>
       </c>
-      <c r="SO1" t="s">
+      <c r="TT1" t="s">
         <v>523</v>
       </c>
-      <c r="SP1" t="s">
+      <c r="TU1" t="s">
         <v>524</v>
       </c>
-      <c r="SQ1" t="s">
+      <c r="TV1" t="s">
         <v>525</v>
       </c>
-      <c r="SR1" t="s">
+      <c r="TW1" t="s">
         <v>526</v>
       </c>
-      <c r="SS1" t="s">
+      <c r="TX1" t="s">
         <v>527</v>
       </c>
-      <c r="ST1" t="s">
+      <c r="TY1" t="s">
         <v>528</v>
       </c>
-      <c r="SU1" t="s">
+      <c r="TZ1" t="s">
         <v>529</v>
       </c>
-      <c r="SV1" t="s">
+      <c r="UA1" t="s">
         <v>530</v>
       </c>
-      <c r="SW1" t="s">
+      <c r="UB1" t="s">
         <v>531</v>
       </c>
-      <c r="SX1" t="s">
+      <c r="UC1" t="s">
         <v>532</v>
       </c>
-      <c r="SY1" t="s">
+      <c r="UD1" t="s">
         <v>533</v>
       </c>
-      <c r="SZ1" t="s">
+      <c r="UE1" t="s">
         <v>534</v>
       </c>
-      <c r="TA1" t="s">
+      <c r="UF1" t="s">
         <v>535</v>
       </c>
-      <c r="TB1" t="s">
+      <c r="UG1" t="s">
         <v>536</v>
       </c>
-      <c r="TC1" t="s">
+      <c r="UH1" t="s">
         <v>537</v>
       </c>
-      <c r="TD1" t="s">
+      <c r="UI1" t="s">
         <v>538</v>
       </c>
-      <c r="TE1" t="s">
+      <c r="UJ1" t="s">
         <v>539</v>
       </c>
-      <c r="TF1" t="s">
+      <c r="UK1" t="s">
         <v>540</v>
       </c>
-      <c r="TG1" t="s">
+      <c r="UL1" t="s">
         <v>541</v>
       </c>
-      <c r="TH1" t="s">
+      <c r="UM1" t="s">
         <v>542</v>
       </c>
-      <c r="TI1" t="s">
+      <c r="UN1" t="s">
         <v>543</v>
       </c>
-      <c r="TJ1" t="s">
+      <c r="UO1" t="s">
         <v>544</v>
       </c>
-      <c r="TK1" t="s">
+      <c r="UP1" t="s">
         <v>545</v>
       </c>
-      <c r="TL1" t="s">
+      <c r="UQ1" t="s">
         <v>546</v>
       </c>
-      <c r="TM1" t="s">
+      <c r="UR1" t="s">
         <v>547</v>
       </c>
-      <c r="TN1" t="s">
+      <c r="US1" t="s">
         <v>548</v>
       </c>
-      <c r="TO1" t="s">
+      <c r="UT1" t="s">
         <v>549</v>
       </c>
-      <c r="TP1" t="s">
+      <c r="UU1" t="s">
         <v>550</v>
       </c>
-      <c r="TQ1" t="s">
+      <c r="UV1" t="s">
         <v>551</v>
       </c>
-      <c r="TR1" t="s">
+      <c r="UW1" t="s">
         <v>552</v>
       </c>
-      <c r="TS1" t="s">
+      <c r="UX1" t="s">
         <v>553</v>
       </c>
-      <c r="TT1" t="s">
+      <c r="UY1" t="s">
         <v>554</v>
       </c>
-      <c r="TU1" t="s">
+      <c r="UZ1" t="s">
         <v>555</v>
       </c>
-      <c r="TV1" t="s">
+      <c r="VA1" t="s">
         <v>556</v>
       </c>
-      <c r="TW1" t="s">
+      <c r="VB1" t="s">
         <v>557</v>
       </c>
-      <c r="TX1" t="s">
+      <c r="VC1" t="s">
         <v>558</v>
       </c>
-      <c r="TY1" t="s">
+      <c r="VD1" t="s">
         <v>559</v>
       </c>
-      <c r="TZ1" t="s">
+      <c r="VE1" t="s">
         <v>560</v>
       </c>
-      <c r="UA1" t="s">
+      <c r="VF1" t="s">
         <v>561</v>
       </c>
-      <c r="UB1" t="s">
+      <c r="VG1" t="s">
         <v>562</v>
       </c>
-      <c r="UC1" t="s">
+      <c r="VH1" t="s">
         <v>563</v>
       </c>
-      <c r="UD1" t="s">
+      <c r="VI1" t="s">
         <v>564</v>
       </c>
-      <c r="UE1" t="s">
+      <c r="VJ1" t="s">
         <v>565</v>
       </c>
-      <c r="UF1" t="s">
+      <c r="VK1" t="s">
         <v>566</v>
       </c>
-      <c r="UG1" t="s">
+      <c r="VL1" t="s">
         <v>567</v>
       </c>
-      <c r="UH1" t="s">
+      <c r="VM1" t="s">
         <v>568</v>
       </c>
-      <c r="UI1" t="s">
+      <c r="VN1" t="s">
         <v>569</v>
       </c>
-      <c r="UJ1" t="s">
+      <c r="VO1" t="s">
         <v>570</v>
       </c>
-      <c r="UK1" t="s">
+      <c r="VP1" t="s">
         <v>571</v>
       </c>
-      <c r="UL1" t="s">
+      <c r="VQ1" t="s">
         <v>572</v>
       </c>
-      <c r="UM1" t="s">
+      <c r="VR1" t="s">
         <v>573</v>
       </c>
-      <c r="UN1" t="s">
+      <c r="VS1" t="s">
         <v>574</v>
       </c>
-      <c r="UO1" t="s">
+      <c r="VT1" t="s">
         <v>575</v>
       </c>
-      <c r="UP1" t="s">
+      <c r="VU1" t="s">
         <v>576</v>
       </c>
-      <c r="UQ1" t="s">
+      <c r="VV1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="VW1" t="s">
         <v>577</v>
       </c>
-      <c r="UR1" t="s">
+      <c r="VX1" t="s">
         <v>578</v>
       </c>
-      <c r="US1" t="s">
+      <c r="VY1" t="s">
         <v>579</v>
       </c>
-      <c r="UT1" t="s">
+      <c r="VZ1" t="s">
         <v>580</v>
       </c>
-      <c r="UU1" t="s">
+      <c r="WA1" t="s">
         <v>581</v>
       </c>
-      <c r="UV1" t="s">
+      <c r="WB1" t="s">
         <v>582</v>
       </c>
-      <c r="UW1" t="s">
+      <c r="WC1" t="s">
         <v>583</v>
       </c>
-      <c r="UX1" t="s">
+      <c r="WD1" t="s">
         <v>584</v>
       </c>
-      <c r="UY1" t="s">
+      <c r="WE1" t="s">
         <v>585</v>
       </c>
-      <c r="UZ1" t="s">
+      <c r="WF1" t="s">
         <v>586</v>
       </c>
-      <c r="VA1" t="s">
+      <c r="WG1" t="s">
         <v>587</v>
       </c>
-      <c r="VB1" t="s">
+      <c r="WH1" t="s">
         <v>588</v>
       </c>
-      <c r="VC1" t="s">
+      <c r="WI1" t="s">
         <v>589</v>
       </c>
-      <c r="VD1" t="s">
+      <c r="WJ1" t="s">
         <v>590</v>
       </c>
-      <c r="VE1" t="s">
+      <c r="WK1" t="s">
         <v>591</v>
       </c>
-      <c r="VF1" t="s">
+      <c r="WL1" t="s">
         <v>592</v>
       </c>
-      <c r="VG1" t="s">
+      <c r="WM1" t="s">
+        <v>1088</v>
+      </c>
+      <c r="WN1" t="s">
         <v>593</v>
       </c>
-      <c r="VH1" t="s">
+      <c r="WO1" t="s">
         <v>594</v>
       </c>
-      <c r="VI1" t="s">
+      <c r="WP1" t="s">
         <v>595</v>
       </c>
-      <c r="VJ1" t="s">
+      <c r="WQ1" t="s">
         <v>596</v>
       </c>
-      <c r="VK1" t="s">
+      <c r="WR1" t="s">
         <v>597</v>
       </c>
-      <c r="VL1" t="s">
+      <c r="WS1" t="s">
         <v>598</v>
       </c>
-      <c r="VM1" t="s">
+      <c r="WT1" t="s">
         <v>599</v>
       </c>
-      <c r="VN1" t="s">
+      <c r="WU1" t="s">
         <v>600</v>
       </c>
-      <c r="VO1" t="s">
+      <c r="WV1" t="s">
         <v>601</v>
       </c>
-      <c r="VP1" t="s">
+      <c r="WW1" t="s">
         <v>602</v>
       </c>
-      <c r="VQ1" t="s">
+      <c r="WX1" t="s">
         <v>603</v>
       </c>
-      <c r="VR1" t="s">
+      <c r="WY1" t="s">
         <v>604</v>
       </c>
-      <c r="VS1" t="s">
+      <c r="WZ1" t="s">
         <v>605</v>
       </c>
-      <c r="VT1" t="s">
+      <c r="XA1" t="s">
         <v>606</v>
       </c>
-      <c r="VU1" t="s">
+      <c r="XB1" t="s">
         <v>607</v>
       </c>
-      <c r="VV1" t="s">
+      <c r="XC1" t="s">
         <v>608</v>
       </c>
-      <c r="VW1" t="s">
+      <c r="XD1" t="s">
         <v>609</v>
       </c>
-      <c r="VX1" t="s">
+      <c r="XE1" t="s">
         <v>610</v>
       </c>
-      <c r="VY1" t="s">
+      <c r="XF1" t="s">
         <v>611</v>
       </c>
-      <c r="VZ1" t="s">
+      <c r="XG1" t="s">
         <v>612</v>
       </c>
-      <c r="WA1" t="s">
+      <c r="XH1" t="s">
         <v>613</v>
       </c>
-      <c r="WB1" t="s">
+      <c r="XI1" t="s">
         <v>614</v>
       </c>
-      <c r="WC1" t="s">
+      <c r="XJ1" t="s">
         <v>615</v>
       </c>
-      <c r="WD1" t="s">
+      <c r="XK1" t="s">
         <v>616</v>
       </c>
-      <c r="WE1" t="s">
+      <c r="XL1" t="s">
         <v>617</v>
       </c>
-      <c r="WF1" t="s">
+      <c r="XM1" t="s">
         <v>618</v>
       </c>
-      <c r="WG1" t="s">
+      <c r="XN1" t="s">
         <v>619</v>
       </c>
-      <c r="WH1" t="s">
+      <c r="XO1" t="s">
         <v>620</v>
       </c>
-      <c r="WI1" t="s">
+      <c r="XP1" t="s">
         <v>621</v>
       </c>
-      <c r="WJ1" t="s">
+      <c r="XQ1" t="s">
         <v>622</v>
       </c>
-      <c r="WK1" t="s">
+      <c r="XR1" t="s">
         <v>623</v>
       </c>
-      <c r="WL1" t="s">
+      <c r="XS1" t="s">
         <v>624</v>
       </c>
-      <c r="WM1" t="s">
+      <c r="XT1" t="s">
         <v>625</v>
       </c>
-      <c r="WN1" t="s">
+      <c r="XU1" t="s">
         <v>626</v>
       </c>
-      <c r="WO1" t="s">
+      <c r="XV1" t="s">
         <v>627</v>
       </c>
-      <c r="WP1" t="s">
+      <c r="XW1" t="s">
         <v>628</v>
       </c>
-      <c r="WQ1" t="s">
+      <c r="XX1" t="s">
         <v>629</v>
       </c>
-      <c r="WR1" t="s">
+      <c r="XY1" t="s">
         <v>630</v>
       </c>
-      <c r="WS1" t="s">
+      <c r="XZ1" t="s">
         <v>631</v>
       </c>
-      <c r="WT1" t="s">
+      <c r="YA1" t="s">
         <v>632</v>
       </c>
-      <c r="WU1" t="s">
+      <c r="YB1" t="s">
         <v>633</v>
       </c>
-      <c r="WV1" t="s">
+      <c r="YC1" t="s">
         <v>634</v>
       </c>
-      <c r="WW1" t="s">
+      <c r="YD1" t="s">
         <v>635</v>
       </c>
-      <c r="WX1" t="s">
+      <c r="YE1" t="s">
         <v>636</v>
       </c>
-      <c r="WY1" t="s">
+      <c r="YF1" t="s">
         <v>637</v>
       </c>
-      <c r="WZ1" t="s">
+      <c r="YG1" t="s">
         <v>638</v>
       </c>
-      <c r="XA1" t="s">
+      <c r="YH1" t="s">
         <v>639</v>
       </c>
-      <c r="XB1" t="s">
+      <c r="YI1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="YJ1" t="s">
         <v>640</v>
       </c>
-      <c r="XC1" t="s">
+      <c r="YK1" t="s">
         <v>641</v>
       </c>
-      <c r="XD1" t="s">
+      <c r="YL1" t="s">
         <v>642</v>
       </c>
-      <c r="XE1" t="s">
+      <c r="YM1" t="s">
         <v>643</v>
       </c>
-      <c r="XF1" t="s">
+      <c r="YN1" t="s">
         <v>644</v>
       </c>
-      <c r="XG1" t="s">
+      <c r="YO1" t="s">
         <v>645</v>
       </c>
-      <c r="XH1" t="s">
+      <c r="YP1" t="s">
         <v>646</v>
       </c>
-      <c r="XI1" t="s">
+      <c r="YQ1" t="s">
         <v>647</v>
       </c>
-      <c r="XJ1" t="s">
+      <c r="YR1" t="s">
         <v>648</v>
       </c>
-      <c r="XK1" t="s">
+      <c r="YS1" t="s">
         <v>649</v>
       </c>
-      <c r="XL1" t="s">
+      <c r="YT1" t="s">
         <v>650</v>
       </c>
-      <c r="XM1" t="s">
+      <c r="YU1" t="s">
         <v>651</v>
       </c>
-      <c r="XN1" t="s">
+      <c r="YV1" t="s">
         <v>652</v>
       </c>
-      <c r="XO1" t="s">
+      <c r="YW1" t="s">
         <v>653</v>
       </c>
-      <c r="XP1" t="s">
+      <c r="YX1" t="s">
         <v>654</v>
       </c>
-      <c r="XQ1" t="s">
+      <c r="YY1" t="s">
         <v>655</v>
       </c>
-      <c r="XR1" t="s">
+      <c r="YZ1" t="s">
         <v>656</v>
       </c>
-      <c r="XS1" t="s">
+      <c r="ZA1" t="s">
         <v>657</v>
       </c>
-      <c r="XT1" t="s">
+      <c r="ZB1" t="s">
         <v>658</v>
       </c>
-      <c r="XU1" t="s">
+      <c r="ZC1" t="s">
         <v>659</v>
       </c>
-      <c r="XV1" t="s">
+      <c r="ZD1" t="s">
         <v>660</v>
       </c>
-      <c r="XW1" t="s">
+      <c r="ZE1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="ZF1" t="s">
         <v>661</v>
       </c>
-      <c r="XX1" t="s">
+      <c r="ZG1" t="s">
         <v>662</v>
       </c>
-      <c r="XY1" t="s">
+      <c r="ZH1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="ZI1" t="s">
         <v>663</v>
       </c>
-      <c r="XZ1" t="s">
+      <c r="ZJ1" t="s">
         <v>664</v>
       </c>
-      <c r="YA1" t="s">
+      <c r="ZK1" t="s">
         <v>665</v>
       </c>
-      <c r="YB1" t="s">
+      <c r="ZL1" t="s">
         <v>666</v>
       </c>
-      <c r="YC1" t="s">
+      <c r="ZM1" t="s">
         <v>667</v>
       </c>
-      <c r="YD1" t="s">
+      <c r="ZN1" t="s">
         <v>668</v>
       </c>
-      <c r="YE1" t="s">
+      <c r="ZO1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="ZP1" t="s">
         <v>669</v>
       </c>
-      <c r="YF1" t="s">
+      <c r="ZQ1" t="s">
         <v>670</v>
       </c>
-      <c r="YG1" t="s">
+      <c r="ZR1" t="s">
         <v>671</v>
       </c>
-      <c r="YH1" t="s">
+      <c r="ZS1" t="s">
         <v>672</v>
       </c>
-      <c r="YI1" t="s">
+      <c r="ZT1" t="s">
         <v>673</v>
       </c>
-      <c r="YJ1" t="s">
+      <c r="ZU1" t="s">
         <v>674</v>
       </c>
-      <c r="YK1" t="s">
+      <c r="ZV1" t="s">
         <v>675</v>
       </c>
-      <c r="YL1" t="s">
+      <c r="ZW1" t="s">
         <v>676</v>
       </c>
-      <c r="YM1" t="s">
+      <c r="ZX1" t="s">
         <v>677</v>
       </c>
-      <c r="YN1" t="s">
+      <c r="ZY1" t="s">
         <v>678</v>
       </c>
-      <c r="YO1" t="s">
+      <c r="ZZ1" t="s">
         <v>679</v>
       </c>
-      <c r="YP1" t="s">
+      <c r="AAA1" t="s">
         <v>680</v>
       </c>
-      <c r="YQ1" t="s">
+      <c r="AAB1" t="s">
         <v>681</v>
       </c>
-      <c r="YR1" t="s">
+      <c r="AAC1" t="s">
         <v>682</v>
       </c>
-      <c r="YS1" t="s">
+      <c r="AAD1" t="s">
         <v>683</v>
       </c>
-      <c r="YT1" t="s">
+      <c r="AAE1" t="s">
         <v>684</v>
       </c>
-      <c r="YU1" t="s">
+      <c r="AAF1" t="s">
         <v>685</v>
       </c>
-      <c r="YV1" t="s">
+      <c r="AAG1" t="s">
         <v>686</v>
       </c>
-      <c r="YW1" t="s">
+      <c r="AAH1" t="s">
         <v>687</v>
       </c>
-      <c r="YX1" t="s">
+      <c r="AAI1" t="s">
         <v>688</v>
       </c>
-      <c r="YY1" t="s">
+      <c r="AAJ1" t="s">
         <v>689</v>
       </c>
-      <c r="YZ1" t="s">
+      <c r="AAK1" t="s">
         <v>690</v>
       </c>
-      <c r="ZA1" t="s">
+      <c r="AAL1" t="s">
         <v>691</v>
       </c>
-      <c r="ZB1" t="s">
+      <c r="AAM1" t="s">
         <v>692</v>
       </c>
-      <c r="ZC1" t="s">
+      <c r="AAN1" t="s">
         <v>693</v>
       </c>
-      <c r="ZD1" t="s">
+      <c r="AAO1" t="s">
         <v>694</v>
       </c>
-      <c r="ZE1" t="s">
+      <c r="AAP1" t="s">
         <v>695</v>
       </c>
-      <c r="ZF1" t="s">
+      <c r="AAQ1" t="s">
         <v>696</v>
       </c>
-      <c r="ZG1" t="s">
+      <c r="AAR1" t="s">
         <v>697</v>
       </c>
-      <c r="ZH1" t="s">
+      <c r="AAS1" t="s">
         <v>698</v>
       </c>
-      <c r="ZI1" t="s">
+      <c r="AAT1" t="s">
         <v>699</v>
       </c>
-      <c r="ZJ1" t="s">
+      <c r="AAU1" t="s">
         <v>700</v>
       </c>
-      <c r="ZK1" t="s">
+      <c r="AAV1" t="s">
         <v>701</v>
       </c>
-      <c r="ZL1" t="s">
+      <c r="AAW1" t="s">
         <v>702</v>
       </c>
-      <c r="ZM1" t="s">
+      <c r="AAX1" t="s">
         <v>703</v>
       </c>
-      <c r="ZN1" t="s">
+      <c r="AAY1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AAZ1" t="s">
         <v>704</v>
       </c>
-      <c r="ZO1" t="s">
+      <c r="ABA1" t="s">
         <v>705</v>
       </c>
-      <c r="ZP1" t="s">
+      <c r="ABB1" t="s">
         <v>706</v>
       </c>
-      <c r="ZQ1" t="s">
+      <c r="ABC1" t="s">
         <v>707</v>
       </c>
-      <c r="ZR1" t="s">
+      <c r="ABD1" t="s">
         <v>708</v>
       </c>
-      <c r="ZS1" t="s">
+      <c r="ABE1" t="s">
         <v>709</v>
       </c>
-      <c r="ZT1" t="s">
+      <c r="ABF1" t="s">
         <v>710</v>
       </c>
-      <c r="ZU1" t="s">
+      <c r="ABG1" t="s">
         <v>711</v>
       </c>
-      <c r="ZV1" t="s">
+      <c r="ABH1" t="s">
         <v>712</v>
       </c>
-      <c r="ZW1" t="s">
+      <c r="ABI1" t="s">
         <v>713</v>
       </c>
-      <c r="ZX1" t="s">
+      <c r="ABJ1" t="s">
         <v>714</v>
       </c>
-      <c r="ZY1" t="s">
+      <c r="ABK1" t="s">
         <v>715</v>
       </c>
-      <c r="ZZ1" t="s">
+      <c r="ABL1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="ABM1" t="s">
         <v>716</v>
       </c>
-      <c r="AAA1" t="s">
+      <c r="ABN1" t="s">
         <v>717</v>
       </c>
-      <c r="AAB1" t="s">
+      <c r="ABO1" t="s">
         <v>718</v>
       </c>
-      <c r="AAC1" t="s">
+      <c r="ABP1" t="s">
         <v>719</v>
       </c>
-      <c r="AAD1" t="s">
+      <c r="ABQ1" t="s">
         <v>720</v>
       </c>
-      <c r="AAE1" t="s">
+      <c r="ABR1" t="s">
         <v>721</v>
       </c>
-      <c r="AAF1" t="s">
+      <c r="ABS1" t="s">
         <v>722</v>
       </c>
-      <c r="AAG1" t="s">
+      <c r="ABT1" t="s">
         <v>723</v>
       </c>
-      <c r="AAH1" t="s">
+      <c r="ABU1" t="s">
         <v>724</v>
       </c>
-      <c r="AAI1" t="s">
+      <c r="ABV1" t="s">
         <v>725</v>
       </c>
-      <c r="AAJ1" t="s">
+      <c r="ABW1" t="s">
         <v>726</v>
       </c>
-      <c r="AAK1" t="s">
+      <c r="ABX1" t="s">
         <v>727</v>
       </c>
-      <c r="AAL1" t="s">
+      <c r="ABY1" t="s">
         <v>728</v>
       </c>
-      <c r="AAM1" t="s">
+      <c r="ABZ1" t="s">
         <v>729</v>
       </c>
-      <c r="AAN1" t="s">
+      <c r="ACA1" t="s">
         <v>730</v>
       </c>
-      <c r="AAO1" t="s">
+      <c r="ACB1" t="s">
         <v>731</v>
       </c>
-      <c r="AAP1" t="s">
+      <c r="ACC1" t="s">
         <v>732</v>
       </c>
-      <c r="AAQ1" t="s">
+      <c r="ACD1" t="s">
         <v>733</v>
       </c>
-      <c r="AAR1" t="s">
+      <c r="ACE1" t="s">
         <v>734</v>
       </c>
-      <c r="AAS1" t="s">
+      <c r="ACF1" t="s">
         <v>735</v>
       </c>
-      <c r="AAT1" t="s">
+      <c r="ACG1" t="s">
         <v>736</v>
       </c>
-      <c r="AAU1" t="s">
+      <c r="ACH1" t="s">
         <v>737</v>
       </c>
-      <c r="AAV1" t="s">
+      <c r="ACI1" t="s">
         <v>738</v>
       </c>
-      <c r="AAW1" t="s">
+      <c r="ACJ1" t="s">
         <v>739</v>
       </c>
-      <c r="AAX1" t="s">
+      <c r="ACK1" t="s">
         <v>740</v>
       </c>
-      <c r="AAY1" t="s">
+      <c r="ACL1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="ACM1" t="s">
         <v>741</v>
       </c>
-      <c r="AAZ1" t="s">
+      <c r="ACN1" t="s">
         <v>742</v>
       </c>
-      <c r="ABA1" t="s">
+      <c r="ACO1" t="s">
         <v>743</v>
       </c>
-      <c r="ABB1" t="s">
+      <c r="ACP1" t="s">
         <v>744</v>
       </c>
-      <c r="ABC1" t="s">
+      <c r="ACQ1" t="s">
         <v>745</v>
       </c>
-      <c r="ABD1" t="s">
+      <c r="ACR1" t="s">
         <v>746</v>
       </c>
-      <c r="ABE1" t="s">
+      <c r="ACS1" t="s">
         <v>747</v>
       </c>
-      <c r="ABF1" t="s">
+      <c r="ACT1" t="s">
         <v>748</v>
       </c>
-      <c r="ABG1" t="s">
+      <c r="ACU1" t="s">
         <v>749</v>
       </c>
-      <c r="ABH1" t="s">
+      <c r="ACV1" t="s">
         <v>750</v>
       </c>
-      <c r="ABI1" t="s">
+      <c r="ACW1" t="s">
         <v>751</v>
       </c>
-      <c r="ABJ1" t="s">
+      <c r="ACX1" t="s">
         <v>752</v>
       </c>
-      <c r="ABK1" t="s">
+      <c r="ACY1" t="s">
         <v>753</v>
       </c>
-      <c r="ABL1" t="s">
+      <c r="ACZ1" t="s">
         <v>754</v>
       </c>
-      <c r="ABM1" t="s">
+      <c r="ADA1" t="s">
         <v>755</v>
       </c>
-      <c r="ABN1" t="s">
+      <c r="ADB1" t="s">
         <v>756</v>
       </c>
-      <c r="ABO1" t="s">
+      <c r="ADC1" t="s">
         <v>757</v>
       </c>
-      <c r="ABP1" t="s">
+      <c r="ADD1" t="s">
         <v>758</v>
       </c>
-      <c r="ABQ1" t="s">
+      <c r="ADE1" t="s">
         <v>759</v>
       </c>
-      <c r="ABR1" t="s">
+      <c r="ADF1" t="s">
         <v>760</v>
       </c>
-      <c r="ABS1" t="s">
+      <c r="ADG1" t="s">
         <v>761</v>
       </c>
-      <c r="ABT1" t="s">
+      <c r="ADH1" t="s">
         <v>762</v>
       </c>
-      <c r="ABU1" t="s">
+      <c r="ADI1" t="s">
         <v>763</v>
       </c>
-      <c r="ABV1" t="s">
+      <c r="ADJ1" t="s">
         <v>764</v>
       </c>
-      <c r="ABW1" t="s">
+      <c r="ADK1" t="s">
         <v>765</v>
       </c>
-      <c r="ABX1" t="s">
+      <c r="ADL1" t="s">
         <v>766</v>
       </c>
-      <c r="ABY1" t="s">
+      <c r="ADM1" t="s">
         <v>767</v>
       </c>
-      <c r="ABZ1" t="s">
+      <c r="ADN1" t="s">
         <v>768</v>
       </c>
-      <c r="ACA1" t="s">
+      <c r="ADO1" t="s">
         <v>769</v>
       </c>
-      <c r="ACB1" t="s">
+      <c r="ADP1" t="s">
         <v>770</v>
       </c>
-      <c r="ACC1" t="s">
+      <c r="ADQ1" t="s">
         <v>771</v>
       </c>
-      <c r="ACD1" t="s">
+      <c r="ADR1" t="s">
         <v>772</v>
       </c>
-      <c r="ACE1" t="s">
+      <c r="ADS1" t="s">
         <v>773</v>
       </c>
-      <c r="ACF1" t="s">
+      <c r="ADT1" t="s">
         <v>774</v>
       </c>
-      <c r="ACG1" t="s">
+      <c r="ADU1" t="s">
         <v>775</v>
       </c>
-      <c r="ACH1" t="s">
+      <c r="ADV1" t="s">
         <v>776</v>
       </c>
-      <c r="ACI1" t="s">
+      <c r="ADW1" t="s">
         <v>777</v>
       </c>
-      <c r="ACJ1" t="s">
+      <c r="ADX1" t="s">
         <v>778</v>
       </c>
-      <c r="ACK1" t="s">
+      <c r="ADY1" t="s">
         <v>779</v>
       </c>
-      <c r="ACL1" t="s">
+      <c r="ADZ1" t="s">
         <v>780</v>
       </c>
-      <c r="ACM1" t="s">
+      <c r="AEA1" t="s">
         <v>781</v>
       </c>
-      <c r="ACN1" t="s">
+      <c r="AEB1" t="s">
         <v>782</v>
       </c>
-      <c r="ACO1" t="s">
+      <c r="AEC1" t="s">
         <v>783</v>
       </c>
-      <c r="ACP1" t="s">
+      <c r="AED1" t="s">
         <v>784</v>
       </c>
-      <c r="ACQ1" t="s">
+      <c r="AEE1" t="s">
         <v>785</v>
       </c>
-      <c r="ACR1" t="s">
+      <c r="AEF1" t="s">
         <v>786</v>
       </c>
-      <c r="ACS1" t="s">
+      <c r="AEG1" t="s">
         <v>787</v>
       </c>
-      <c r="ACT1" t="s">
+      <c r="AEH1" t="s">
         <v>788</v>
       </c>
-      <c r="ACU1" t="s">
+      <c r="AEI1" t="s">
         <v>789</v>
       </c>
-      <c r="ACV1" t="s">
+      <c r="AEJ1" t="s">
         <v>790</v>
       </c>
-      <c r="ACW1" t="s">
+      <c r="AEK1" t="s">
         <v>791</v>
       </c>
-      <c r="ACX1" t="s">
+      <c r="AEL1" t="s">
         <v>792</v>
       </c>
-      <c r="ACY1" t="s">
+      <c r="AEM1" t="s">
         <v>793</v>
       </c>
-      <c r="ACZ1" t="s">
+      <c r="AEN1" t="s">
         <v>794</v>
       </c>
-      <c r="ADA1" t="s">
+      <c r="AEO1" t="s">
         <v>795</v>
       </c>
-      <c r="ADB1" t="s">
+      <c r="AEP1" t="s">
         <v>796</v>
       </c>
-      <c r="ADC1" t="s">
+      <c r="AEQ1" t="s">
         <v>797</v>
       </c>
-      <c r="ADD1" t="s">
+      <c r="AER1" t="s">
         <v>798</v>
       </c>
-      <c r="ADE1" t="s">
+      <c r="AES1" t="s">
         <v>799</v>
       </c>
-      <c r="ADF1" t="s">
+      <c r="AET1" t="s">
         <v>800</v>
       </c>
-      <c r="ADG1" t="s">
+      <c r="AEU1" t="s">
         <v>801</v>
       </c>
-      <c r="ADH1" t="s">
+      <c r="AEV1" t="s">
         <v>802</v>
       </c>
-      <c r="ADI1" t="s">
+      <c r="AEW1" t="s">
         <v>803</v>
       </c>
-      <c r="ADJ1" t="s">
+      <c r="AEX1" t="s">
         <v>804</v>
       </c>
-      <c r="ADK1" t="s">
+      <c r="AEY1" t="s">
         <v>805</v>
       </c>
-      <c r="ADL1" t="s">
+      <c r="AEZ1" t="s">
         <v>806</v>
       </c>
-      <c r="ADM1" t="s">
+      <c r="AFA1" t="s">
         <v>807</v>
       </c>
-      <c r="ADN1" t="s">
+      <c r="AFB1" t="s">
         <v>808</v>
       </c>
-      <c r="ADO1" t="s">
+      <c r="AFC1" t="s">
         <v>809</v>
       </c>
-      <c r="ADP1" t="s">
+      <c r="AFD1" t="s">
         <v>810</v>
       </c>
-      <c r="ADQ1" t="s">
+      <c r="AFE1" t="s">
         <v>811</v>
       </c>
-      <c r="ADR1" t="s">
+      <c r="AFF1" t="s">
         <v>812</v>
       </c>
-      <c r="ADS1" t="s">
+      <c r="AFG1" t="s">
         <v>813</v>
       </c>
-      <c r="ADT1" t="s">
+      <c r="AFH1" t="s">
         <v>814</v>
       </c>
-      <c r="ADU1" t="s">
+      <c r="AFI1" t="s">
         <v>815</v>
       </c>
-      <c r="ADV1" t="s">
+      <c r="AFJ1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AFK1" t="s">
         <v>816</v>
       </c>
-      <c r="ADW1" t="s">
+      <c r="AFL1" t="s">
         <v>817</v>
       </c>
-      <c r="ADX1" t="s">
+      <c r="AFM1" t="s">
         <v>818</v>
       </c>
-      <c r="ADY1" t="s">
+      <c r="AFN1" t="s">
         <v>819</v>
       </c>
-      <c r="ADZ1" t="s">
+      <c r="AFO1" t="s">
         <v>820</v>
       </c>
-      <c r="AEA1" t="s">
+      <c r="AFP1" t="s">
         <v>821</v>
       </c>
-      <c r="AEB1" t="s">
+      <c r="AFQ1" t="s">
         <v>822</v>
       </c>
-      <c r="AEC1" t="s">
+      <c r="AFR1" t="s">
         <v>823</v>
       </c>
-      <c r="AED1" t="s">
+      <c r="AFS1" t="s">
         <v>824</v>
       </c>
-      <c r="AEE1" t="s">
+      <c r="AFT1" t="s">
         <v>825</v>
       </c>
-      <c r="AEF1" t="s">
+      <c r="AFU1" t="s">
         <v>826</v>
       </c>
-      <c r="AEG1" t="s">
+      <c r="AFV1" t="s">
         <v>827</v>
       </c>
-      <c r="AEH1" t="s">
+      <c r="AFW1" t="s">
         <v>828</v>
       </c>
-      <c r="AEI1" t="s">
+      <c r="AFX1" t="s">
         <v>829</v>
       </c>
-      <c r="AEJ1" t="s">
+      <c r="AFY1" t="s">
         <v>830</v>
       </c>
-      <c r="AEK1" t="s">
+      <c r="AFZ1" t="s">
         <v>831</v>
       </c>
-      <c r="AEL1" t="s">
+      <c r="AGA1" t="s">
         <v>832</v>
       </c>
-      <c r="AEM1" t="s">
+      <c r="AGB1" t="s">
         <v>833</v>
       </c>
-      <c r="AEN1" t="s">
+      <c r="AGC1" t="s">
         <v>834</v>
       </c>
-      <c r="AEO1" t="s">
+      <c r="AGD1" t="s">
         <v>835</v>
       </c>
-      <c r="AEP1" t="s">
+      <c r="AGE1" t="s">
         <v>836</v>
       </c>
-      <c r="AEQ1" t="s">
+      <c r="AGF1" t="s">
         <v>837</v>
       </c>
-      <c r="AER1" t="s">
+      <c r="AGG1" t="s">
         <v>838</v>
       </c>
-      <c r="AES1" t="s">
+      <c r="AGH1" t="s">
         <v>839</v>
       </c>
-      <c r="AET1" t="s">
+      <c r="AGI1" t="s">
         <v>840</v>
       </c>
-      <c r="AEU1" t="s">
+      <c r="AGJ1" t="s">
         <v>841</v>
       </c>
-      <c r="AEV1" t="s">
+      <c r="AGK1" t="s">
         <v>842</v>
       </c>
-      <c r="AEW1" t="s">
+      <c r="AGL1" t="s">
         <v>843</v>
       </c>
-      <c r="AEX1" t="s">
+      <c r="AGM1" t="s">
         <v>844</v>
       </c>
-      <c r="AEY1" t="s">
+      <c r="AGN1" t="s">
         <v>845</v>
       </c>
-      <c r="AEZ1" t="s">
+      <c r="AGO1" t="s">
         <v>846</v>
       </c>
-      <c r="AFA1" t="s">
+      <c r="AGP1" t="s">
         <v>847</v>
       </c>
-      <c r="AFB1" t="s">
+      <c r="AGQ1" t="s">
         <v>848</v>
       </c>
-      <c r="AFC1" t="s">
+      <c r="AGR1" t="s">
         <v>849</v>
       </c>
-      <c r="AFD1" t="s">
+      <c r="AGS1" t="s">
         <v>850</v>
       </c>
-      <c r="AFE1" t="s">
+      <c r="AGT1" t="s">
         <v>851</v>
       </c>
-      <c r="AFF1" t="s">
+      <c r="AGU1" t="s">
+        <v>374</v>
+      </c>
+      <c r="AGV1" t="s">
         <v>852</v>
       </c>
-      <c r="AFG1" t="s">
+      <c r="AGW1" t="s">
         <v>853</v>
       </c>
-      <c r="AFH1" t="s">
+      <c r="AGX1" t="s">
         <v>854</v>
       </c>
-      <c r="AFI1" t="s">
+      <c r="AGY1" t="s">
         <v>855</v>
       </c>
-      <c r="AFJ1" t="s">
+      <c r="AGZ1" t="s">
         <v>856</v>
       </c>
-      <c r="AFK1" t="s">
+      <c r="AHA1" t="s">
         <v>857</v>
       </c>
-      <c r="AFL1" t="s">
+      <c r="AHB1" t="s">
         <v>858</v>
       </c>
-      <c r="AFM1" t="s">
+      <c r="AHC1" t="s">
         <v>859</v>
       </c>
-      <c r="AFN1" t="s">
+      <c r="AHD1" t="s">
         <v>860</v>
       </c>
-      <c r="AFO1" t="s">
+      <c r="AHE1" t="s">
         <v>861</v>
       </c>
-      <c r="AFP1" t="s">
+      <c r="AHF1" t="s">
         <v>862</v>
       </c>
-      <c r="AFQ1" t="s">
+      <c r="AHG1" t="s">
         <v>863</v>
       </c>
-      <c r="AFR1" t="s">
+      <c r="AHH1" t="s">
         <v>864</v>
       </c>
-      <c r="AFS1" t="s">
+      <c r="AHI1" t="s">
         <v>865</v>
       </c>
-      <c r="AFT1" t="s">
+      <c r="AHJ1" t="s">
         <v>866</v>
       </c>
-      <c r="AFU1" t="s">
+      <c r="AHK1" t="s">
         <v>867</v>
       </c>
-      <c r="AFV1" t="s">
+      <c r="AHL1" t="s">
         <v>868</v>
       </c>
-      <c r="AFW1" t="s">
+      <c r="AHM1" t="s">
         <v>869</v>
       </c>
-      <c r="AFX1" t="s">
+      <c r="AHN1" t="s">
+        <v>455</v>
+      </c>
+      <c r="AHO1" t="s">
         <v>870</v>
       </c>
-      <c r="AFY1" t="s">
+      <c r="AHP1" t="s">
         <v>871</v>
       </c>
-      <c r="AFZ1" t="s">
+      <c r="AHQ1" t="s">
         <v>872</v>
       </c>
-      <c r="AGA1" t="s">
+      <c r="AHR1" t="s">
         <v>873</v>
       </c>
-      <c r="AGB1" t="s">
+      <c r="AHS1" t="s">
         <v>874</v>
       </c>
-      <c r="AGC1" t="s">
+      <c r="AHT1" t="s">
         <v>875</v>
       </c>
-      <c r="AGD1" t="s">
+      <c r="AHU1" t="s">
         <v>876</v>
       </c>
-      <c r="AGE1" t="s">
+      <c r="AHV1" t="s">
         <v>877</v>
       </c>
-      <c r="AGF1" t="s">
+      <c r="AHW1" t="s">
         <v>878</v>
       </c>
-      <c r="AGG1" t="s">
+      <c r="AHX1" t="s">
         <v>879</v>
       </c>
-      <c r="AGH1" t="s">
+      <c r="AHY1" t="s">
         <v>880</v>
       </c>
-      <c r="AGI1" t="s">
+      <c r="AHZ1" t="s">
         <v>881</v>
       </c>
-      <c r="AGJ1" t="s">
+      <c r="AIA1" t="s">
         <v>882</v>
       </c>
-      <c r="AGK1" t="s">
+      <c r="AIB1" t="s">
         <v>883</v>
       </c>
-      <c r="AGL1" t="s">
+      <c r="AIC1" t="s">
         <v>884</v>
       </c>
-      <c r="AGM1" t="s">
+      <c r="AID1" t="s">
         <v>885</v>
       </c>
-      <c r="AGN1" t="s">
+      <c r="AIE1" t="s">
         <v>886</v>
       </c>
-      <c r="AGO1" t="s">
+      <c r="AIF1" t="s">
         <v>887</v>
       </c>
-      <c r="AGP1" t="s">
+      <c r="AIG1" t="s">
         <v>888</v>
       </c>
-      <c r="AGQ1" t="s">
+      <c r="AIH1" t="s">
         <v>889</v>
       </c>
-      <c r="AGR1" t="s">
+      <c r="AII1" t="s">
         <v>890</v>
       </c>
-      <c r="AGS1" t="s">
+      <c r="AIJ1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AIK1" t="s">
         <v>891</v>
       </c>
-      <c r="AGT1" t="s">
+      <c r="AIL1" t="s">
         <v>892</v>
       </c>
-      <c r="AGU1" t="s">
+      <c r="AIM1" t="s">
         <v>893</v>
       </c>
-      <c r="AGV1" t="s">
+      <c r="AIN1" t="s">
         <v>894</v>
       </c>
-      <c r="AGW1" t="s">
+      <c r="AIO1" t="s">
         <v>895</v>
       </c>
-      <c r="AGX1" t="s">
+      <c r="AIP1" t="s">
         <v>896</v>
       </c>
-      <c r="AGY1" t="s">
+      <c r="AIQ1" t="s">
         <v>897</v>
       </c>
-      <c r="AGZ1" t="s">
+      <c r="AIR1" t="s">
         <v>898</v>
       </c>
-      <c r="AHA1" t="s">
+      <c r="AIS1" t="s">
         <v>899</v>
       </c>
-      <c r="AHB1" t="s">
+      <c r="AIT1" t="s">
         <v>900</v>
       </c>
-      <c r="AHC1" t="s">
+      <c r="AIU1" t="s">
         <v>901</v>
       </c>
-      <c r="AHD1" t="s">
+      <c r="AIV1" t="s">
         <v>902</v>
       </c>
-      <c r="AHE1" t="s">
+      <c r="AIW1" t="s">
         <v>903</v>
       </c>
-      <c r="AHF1" t="s">
+      <c r="AIX1" t="s">
         <v>904</v>
       </c>
-      <c r="AHG1" t="s">
+      <c r="AIY1" t="s">
         <v>905</v>
       </c>
-      <c r="AHH1" t="s">
+      <c r="AIZ1" t="s">
         <v>906</v>
       </c>
-      <c r="AHI1" t="s">
+      <c r="AJA1" t="s">
         <v>907</v>
       </c>
-      <c r="AHJ1" t="s">
+      <c r="AJB1" t="s">
         <v>908</v>
       </c>
-      <c r="AHK1" t="s">
+      <c r="AJC1" t="s">
         <v>909</v>
       </c>
-      <c r="AHL1" t="s">
+      <c r="AJD1" t="s">
         <v>910</v>
       </c>
-      <c r="AHM1" t="s">
+      <c r="AJE1" t="s">
         <v>911</v>
       </c>
-      <c r="AHN1" t="s">
+      <c r="AJF1" t="s">
         <v>912</v>
       </c>
-      <c r="AHO1" t="s">
+      <c r="AJG1" t="s">
         <v>913</v>
       </c>
-      <c r="AHP1" t="s">
+      <c r="AJH1" t="s">
         <v>914</v>
       </c>
-      <c r="AHQ1" t="s">
+      <c r="AJI1" t="s">
         <v>915</v>
       </c>
-      <c r="AHR1" t="s">
+      <c r="AJJ1" t="s">
         <v>916</v>
       </c>
-      <c r="AHS1" t="s">
+      <c r="AJK1" t="s">
         <v>917</v>
       </c>
-      <c r="AHT1" t="s">
+      <c r="AJL1" t="s">
         <v>918</v>
       </c>
-      <c r="AHU1" t="s">
+      <c r="AJM1" t="s">
         <v>919</v>
       </c>
-      <c r="AHV1" t="s">
+      <c r="AJN1" t="s">
         <v>920</v>
       </c>
-      <c r="AHW1" t="s">
+      <c r="AJO1" t="s">
         <v>921</v>
       </c>
-      <c r="AHX1" t="s">
+      <c r="AJP1" t="s">
         <v>922</v>
       </c>
-      <c r="AHY1" t="s">
+      <c r="AJQ1" t="s">
         <v>923</v>
       </c>
-      <c r="AHZ1" t="s">
+      <c r="AJR1" t="s">
         <v>924</v>
       </c>
-      <c r="AIA1" t="s">
+      <c r="AJS1" t="s">
         <v>925</v>
       </c>
-      <c r="AIB1" t="s">
+      <c r="AJT1" t="s">
         <v>926</v>
       </c>
-      <c r="AIC1" t="s">
+      <c r="AJU1" t="s">
         <v>927</v>
       </c>
-      <c r="AID1" t="s">
+      <c r="AJV1" t="s">
         <v>928</v>
       </c>
-      <c r="AIE1" t="s">
+      <c r="AJW1" t="s">
         <v>929</v>
       </c>
-      <c r="AIF1" t="s">
+      <c r="AJX1" t="s">
         <v>930</v>
       </c>
-      <c r="AIG1" t="s">
+      <c r="AJY1" t="s">
         <v>931</v>
       </c>
-      <c r="AIH1" t="s">
+      <c r="AJZ1" t="s">
         <v>932</v>
       </c>
-      <c r="AII1" t="s">
+      <c r="AKA1" t="s">
         <v>933</v>
       </c>
-      <c r="AIJ1" t="s">
+      <c r="AKB1" t="s">
         <v>934</v>
       </c>
-      <c r="AIK1" t="s">
+      <c r="AKC1" t="s">
         <v>935</v>
       </c>
-      <c r="AIL1" t="s">
+      <c r="AKD1" t="s">
         <v>936</v>
       </c>
-      <c r="AIM1" t="s">
+      <c r="AKE1" t="s">
         <v>937</v>
       </c>
-      <c r="AIN1" t="s">
+      <c r="AKF1" t="s">
         <v>938</v>
       </c>
-      <c r="AIO1" t="s">
+      <c r="AKG1" t="s">
         <v>939</v>
       </c>
-      <c r="AIP1" t="s">
+      <c r="AKH1" t="s">
         <v>940</v>
       </c>
-      <c r="AIQ1" t="s">
+      <c r="AKI1" t="s">
         <v>941</v>
       </c>
-      <c r="AIR1" t="s">
+      <c r="AKJ1" t="s">
         <v>942</v>
       </c>
-      <c r="AIS1" t="s">
+      <c r="AKK1" t="s">
         <v>943</v>
       </c>
-      <c r="AIT1" t="s">
+      <c r="AKL1" t="s">
         <v>944</v>
       </c>
-      <c r="AIU1" t="s">
+      <c r="AKM1" t="s">
         <v>945</v>
       </c>
-      <c r="AIV1" t="s">
+      <c r="AKN1" t="s">
         <v>946</v>
       </c>
-      <c r="AIW1" t="s">
+      <c r="AKO1" t="s">
         <v>947</v>
       </c>
-      <c r="AIX1" t="s">
+      <c r="AKP1" t="s">
         <v>948</v>
       </c>
-      <c r="AIY1" t="s">
+      <c r="AKQ1" t="s">
         <v>949</v>
       </c>
-      <c r="AIZ1" t="s">
+      <c r="AKR1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AKS1" t="s">
         <v>950</v>
       </c>
-      <c r="AJA1" t="s">
+      <c r="AKT1" t="s">
         <v>951</v>
       </c>
-      <c r="AJB1" t="s">
+      <c r="AKU1" t="s">
         <v>952</v>
       </c>
-      <c r="AJC1" t="s">
+      <c r="AKV1" t="s">
         <v>953</v>
       </c>
-      <c r="AJD1" t="s">
+      <c r="AKW1" t="s">
         <v>954</v>
       </c>
-      <c r="AJE1" t="s">
+      <c r="AKX1" t="s">
         <v>955</v>
       </c>
-      <c r="AJF1" t="s">
+      <c r="AKY1" t="s">
         <v>956</v>
       </c>
-      <c r="AJG1" t="s">
+      <c r="AKZ1" t="s">
         <v>957</v>
       </c>
-      <c r="AJH1" t="s">
+      <c r="ALA1" t="s">
         <v>958</v>
       </c>
-      <c r="AJI1" t="s">
+      <c r="ALB1" t="s">
         <v>959</v>
       </c>
-      <c r="AJJ1" t="s">
+      <c r="ALC1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="ALD1" t="s">
         <v>960</v>
       </c>
-      <c r="AJK1" t="s">
+      <c r="ALE1" t="s">
         <v>961</v>
       </c>
-      <c r="AJL1" t="s">
+      <c r="ALF1" t="s">
         <v>962</v>
       </c>
-      <c r="AJM1" t="s">
+      <c r="ALG1" t="s">
         <v>963</v>
       </c>
-      <c r="AJN1" t="s">
+      <c r="ALH1" t="s">
         <v>964</v>
       </c>
-      <c r="AJO1" t="s">
+      <c r="ALI1" t="s">
         <v>965</v>
       </c>
-      <c r="AJP1" t="s">
+      <c r="ALJ1" t="s">
         <v>966</v>
       </c>
-      <c r="AJQ1" t="s">
+      <c r="ALK1" t="s">
         <v>967</v>
       </c>
-      <c r="AJR1" t="s">
+      <c r="ALL1" t="s">
         <v>968</v>
       </c>
-      <c r="AJS1" t="s">
+      <c r="ALM1" t="s">
         <v>969</v>
       </c>
-      <c r="AJT1" t="s">
+      <c r="ALN1" t="s">
         <v>970</v>
       </c>
-      <c r="AJU1" t="s">
+      <c r="ALO1" t="s">
         <v>971</v>
       </c>
-      <c r="AJV1" t="s">
+      <c r="ALP1" t="s">
         <v>972</v>
       </c>
-      <c r="AJW1" t="s">
+      <c r="ALQ1" t="s">
         <v>973</v>
       </c>
-      <c r="AJX1" t="s">
+      <c r="ALR1" t="s">
         <v>974</v>
       </c>
-      <c r="AJY1" t="s">
+      <c r="ALS1" t="s">
         <v>975</v>
       </c>
-      <c r="AJZ1" t="s">
+      <c r="ALT1" t="s">
         <v>976</v>
       </c>
-      <c r="AKA1" t="s">
+      <c r="ALU1" t="s">
         <v>977</v>
       </c>
-      <c r="AKB1" t="s">
+      <c r="ALV1" t="s">
         <v>978</v>
       </c>
-      <c r="AKC1" t="s">
+      <c r="ALW1" t="s">
         <v>979</v>
       </c>
-      <c r="AKD1" t="s">
+      <c r="ALX1" t="s">
         <v>980</v>
       </c>
-      <c r="AKE1" t="s">
+      <c r="ALY1" t="s">
         <v>981</v>
       </c>
-      <c r="AKF1" t="s">
+      <c r="ALZ1" t="s">
         <v>982</v>
       </c>
-      <c r="AKG1" t="s">
+      <c r="AMA1" t="s">
         <v>983</v>
       </c>
-      <c r="AKH1" t="s">
+      <c r="AMB1" t="s">
         <v>984</v>
       </c>
-      <c r="AKI1" t="s">
+      <c r="AMC1" t="s">
         <v>985</v>
       </c>
-      <c r="AKJ1" t="s">
+      <c r="AMD1" t="s">
         <v>986</v>
       </c>
-      <c r="AKK1" t="s">
+      <c r="AME1" t="s">
         <v>987</v>
       </c>
-      <c r="AKL1" t="s">
+      <c r="AMF1" t="s">
         <v>988</v>
       </c>
-      <c r="AKM1" t="s">
+      <c r="AMG1" t="s">
         <v>989</v>
       </c>
-      <c r="AKN1" t="s">
+      <c r="AMH1" t="s">
         <v>990</v>
       </c>
-      <c r="AKO1" t="s">
+      <c r="AMI1" t="s">
         <v>991</v>
       </c>
-      <c r="AKP1" t="s">
+      <c r="AMJ1" t="s">
         <v>992</v>
       </c>
-      <c r="AKQ1" t="s">
+      <c r="AMK1" t="s">
         <v>993</v>
       </c>
-      <c r="AKR1" t="s">
+      <c r="AML1" t="s">
         <v>994</v>
       </c>
-      <c r="AKS1" t="s">
+      <c r="AMM1" t="s">
         <v>995</v>
       </c>
-      <c r="AKT1" t="s">
+      <c r="AMN1" t="s">
         <v>996</v>
       </c>
-      <c r="AKU1" t="s">
+      <c r="AMO1" t="s">
         <v>997</v>
       </c>
-      <c r="AKV1" t="s">
+      <c r="AMP1" t="s">
         <v>998</v>
       </c>
-      <c r="AKW1" t="s">
+      <c r="AMQ1" t="s">
         <v>999</v>
       </c>
-      <c r="AKX1" t="s">
+      <c r="AMR1" t="s">
         <v>1000</v>
       </c>
-      <c r="AKY1" t="s">
+      <c r="AMS1" t="s">
         <v>1001</v>
       </c>
-      <c r="AKZ1" t="s">
+      <c r="AMT1" t="s">
         <v>1002</v>
       </c>
-      <c r="ALA1" t="s">
+      <c r="AMU1" t="s">
         <v>1003</v>
       </c>
-      <c r="ALB1" t="s">
+      <c r="AMV1" t="s">
         <v>1004</v>
       </c>
-      <c r="ALC1" t="s">
+      <c r="AMW1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AMX1" t="s">
         <v>1005</v>
       </c>
-      <c r="ALD1" t="s">
+      <c r="AMY1" t="s">
         <v>1006</v>
       </c>
-      <c r="ALE1" t="s">
+      <c r="AMZ1" t="s">
         <v>1007</v>
       </c>
-      <c r="ALF1" t="s">
+      <c r="ANA1" t="s">
         <v>1008</v>
       </c>
-      <c r="ALG1" t="s">
+      <c r="ANB1" t="s">
         <v>1009</v>
       </c>
-      <c r="ALH1" t="s">
+      <c r="ANC1" t="s">
         <v>1010</v>
       </c>
-      <c r="ALI1" t="s">
+      <c r="AND1" t="s">
         <v>1011</v>
       </c>
-      <c r="ALJ1" t="s">
+      <c r="ANE1" t="s">
         <v>1012</v>
       </c>
-      <c r="ALK1" t="s">
+      <c r="ANF1" t="s">
         <v>1013</v>
       </c>
-      <c r="ALL1" t="s">
+      <c r="ANG1" t="s">
         <v>1014</v>
       </c>
-      <c r="ALM1" t="s">
+      <c r="ANH1" t="s">
         <v>1015</v>
       </c>
-      <c r="ALN1" t="s">
+      <c r="ANI1" t="s">
         <v>1016</v>
       </c>
-      <c r="ALO1" t="s">
+      <c r="ANJ1" t="s">
         <v>1017</v>
       </c>
-      <c r="ALP1" t="s">
+      <c r="ANK1" t="s">
         <v>1018</v>
       </c>
-      <c r="ALQ1" t="s">
+      <c r="ANL1" t="s">
         <v>1019</v>
       </c>
-      <c r="ALR1" t="s">
+      <c r="ANM1" t="s">
         <v>1020</v>
       </c>
-      <c r="ALS1" t="s">
+      <c r="ANN1" t="s">
         <v>1021</v>
       </c>
-      <c r="ALT1" t="s">
+      <c r="ANO1" t="s">
         <v>1022</v>
       </c>
-      <c r="ALU1" t="s">
+      <c r="ANP1" t="s">
         <v>1023</v>
       </c>
-      <c r="ALV1" t="s">
+      <c r="ANQ1" t="s">
         <v>1024</v>
       </c>
-      <c r="ALW1" t="s">
+      <c r="ANR1" t="s">
         <v>1025</v>
       </c>
-      <c r="ALX1" t="s">
+      <c r="ANS1" t="s">
         <v>1026</v>
       </c>
-      <c r="ALY1" t="s">
+      <c r="ANT1" t="s">
         <v>1027</v>
       </c>
-      <c r="ALZ1" t="s">
+      <c r="ANU1" t="s">
         <v>1028</v>
       </c>
-      <c r="AMA1" t="s">
+      <c r="ANV1" t="s">
         <v>1029</v>
       </c>
-      <c r="AMB1" t="s">
+      <c r="ANW1" t="s">
         <v>1030</v>
       </c>
-      <c r="AMC1" t="s">
+      <c r="ANX1" t="s">
         <v>1031</v>
       </c>
-      <c r="AMD1" t="s">
+      <c r="ANY1" t="s">
         <v>1032</v>
       </c>
-      <c r="AME1" t="s">
+      <c r="ANZ1" t="s">
         <v>1033</v>
       </c>
-      <c r="AMF1" t="s">
+      <c r="AOA1" t="s">
         <v>1034</v>
       </c>
-      <c r="AMG1" t="s">
+      <c r="AOB1" t="s">
         <v>1035</v>
       </c>
-      <c r="AMH1" t="s">
+      <c r="AOC1" t="s">
         <v>1036</v>
       </c>
-      <c r="AMI1" t="s">
+      <c r="AOD1" t="s">
         <v>1037</v>
       </c>
-      <c r="AMJ1" t="s">
+      <c r="AOE1" t="s">
         <v>1038</v>
       </c>
-      <c r="AMK1" t="s">
+      <c r="AOF1" t="s">
         <v>1039</v>
       </c>
-      <c r="AML1" t="s">
+      <c r="AOG1" t="s">
         <v>1040</v>
       </c>
-      <c r="AMM1" t="s">
+      <c r="AOH1" t="s">
         <v>1041</v>
       </c>
-      <c r="AMN1" t="s">
+      <c r="AOI1" t="s">
         <v>1042</v>
       </c>
-      <c r="AMO1" t="s">
+      <c r="AOJ1" t="s">
         <v>1043</v>
       </c>
-      <c r="AMP1" t="s">
+      <c r="AOK1" t="s">
         <v>1044</v>
       </c>
-      <c r="AMQ1" t="s">
+      <c r="AOL1" t="s">
         <v>1045</v>
       </c>
-      <c r="AMR1" t="s">
+      <c r="AOM1" t="s">
         <v>1046</v>
       </c>
-      <c r="AMS1" t="s">
+      <c r="AON1" t="s">
         <v>1047</v>
       </c>
-      <c r="AMT1" t="s">
+      <c r="AOO1" t="s">
         <v>1048</v>
       </c>
-      <c r="AMU1" t="s">
+      <c r="AOP1" t="s">
         <v>1049</v>
       </c>
-      <c r="AMV1" t="s">
+      <c r="AOQ1" t="s">
         <v>1050</v>
       </c>
-      <c r="AMW1" t="s">
+      <c r="AOR1" t="s">
         <v>1051</v>
       </c>
-      <c r="AMX1" t="s">
+      <c r="AOS1" t="s">
         <v>1052</v>
       </c>
-      <c r="AMY1" t="s">
+      <c r="AOT1" t="s">
         <v>1053</v>
       </c>
-      <c r="AMZ1" t="s">
+      <c r="AOU1" t="s">
         <v>1054</v>
       </c>
-      <c r="ANA1" t="s">
+      <c r="AOV1" t="s">
         <v>1055</v>
       </c>
-      <c r="ANB1" t="s">
+      <c r="AOW1" t="s">
         <v>1056</v>
       </c>
-      <c r="ANC1" t="s">
+      <c r="AOX1" t="s">
         <v>1057</v>
       </c>
-      <c r="AND1" t="s">
+      <c r="AOY1" t="s">
         <v>1058</v>
       </c>
-      <c r="ANE1" t="s">
+      <c r="AOZ1" t="s">
         <v>1059</v>
       </c>
-      <c r="ANF1" t="s">
+      <c r="APA1" t="s">
         <v>1060</v>
       </c>
-      <c r="ANG1" t="s">
+      <c r="APB1" t="s">
         <v>1061</v>
       </c>
-      <c r="ANH1" t="s">
+      <c r="APC1" t="s">
         <v>1062</v>
-      </c>
-      <c r="ANI1" t="s">
-        <v>1063</v>
-      </c>
-      <c r="ANJ1" t="s">
-        <v>1064</v>
-      </c>
-      <c r="ANK1" t="s">
-        <v>1065</v>
-      </c>
-      <c r="ANL1" t="s">
-        <v>1066</v>
-      </c>
-      <c r="ANM1" t="s">
-        <v>1067</v>
-      </c>
-      <c r="ANN1" t="s">
-        <v>1068</v>
-      </c>
-      <c r="ANO1" t="s">
-        <v>1069</v>
-      </c>
-      <c r="ANP1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="ANQ1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="ANR1" t="s">
-        <v>1072</v>
-      </c>
-      <c r="ANS1" t="s">
-        <v>1073</v>
-      </c>
-      <c r="ANT1" t="s">
-        <v>1074</v>
-      </c>
-      <c r="ANU1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="ANV1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="ANW1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="ANX1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="ANY1" t="s">
-        <v>1079</v>
-      </c>
-      <c r="ANZ1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="AOA1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="AOB1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="AOC1" t="s">
-        <v>1083</v>
-      </c>
-      <c r="AOD1" t="s">
-        <v>1084</v>
-      </c>
-      <c r="AOE1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="AOF1" t="s">
-        <v>1086</v>
-      </c>
-      <c r="AOG1" t="s">
-        <v>1087</v>
-      </c>
-      <c r="AOH1" t="s">
-        <v>1088</v>
-      </c>
-      <c r="AOI1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="AOJ1" t="s">
-        <v>1090</v>
-      </c>
-      <c r="AOK1" t="s">
-        <v>1091</v>
-      </c>
-      <c r="AOL1" t="s">
-        <v>1092</v>
-      </c>
-      <c r="AOM1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="AON1" t="s">
-        <v>1094</v>
-      </c>
-      <c r="AOO1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="AOP1" t="s">
-        <v>1096</v>
-      </c>
-      <c r="AOQ1" t="s">
-        <v>1097</v>
-      </c>
-      <c r="AOR1" t="s">
-        <v>1098</v>
-      </c>
-      <c r="AOS1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="AOT1" t="s">
-        <v>1100</v>
-      </c>
-      <c r="AOU1" t="s">
-        <v>1101</v>
-      </c>
-      <c r="AOV1" t="s">
-        <v>1102</v>
-      </c>
-      <c r="AOW1" t="s">
-        <v>1103</v>
-      </c>
-      <c r="AOX1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="AOY1" t="s">
-        <v>1105</v>
-      </c>
-      <c r="AOZ1" t="s">
-        <v>1106</v>
-      </c>
-      <c r="APA1" t="s">
-        <v>1107</v>
-      </c>
-      <c r="APB1" t="s">
-        <v>1108</v>
-      </c>
-      <c r="APC1" t="s">
-        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:1095" x14ac:dyDescent="0.3">
